--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>Array</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Count number of binary strings without consecutive 1’s</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -394,22 +409,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -426,8 +442,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -447,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -467,23 +486,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -491,7 +534,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -499,7 +542,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -507,7 +550,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -515,7 +558,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -523,7 +566,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -531,7 +574,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>medium</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem</t>
+  </si>
+  <si>
+    <t>Total number of non-decreasing numbers with n digits</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,20 +533,44 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Total number of non-decreasing numbers with n digits</t>
+  </si>
+  <si>
+    <t>longest consecutive path from a given starting character</t>
+  </si>
+  <si>
+    <t>Minimum number of squares withsum equals n</t>
+  </si>
+  <si>
+    <t>Math</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,20 +582,44 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Count number of binary strings without consecutive 1’s</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -80,6 +77,15 @@
   </si>
   <si>
     <t>Math</t>
+  </si>
+  <si>
+    <t>Find minimum number of coins</t>
+  </si>
+  <si>
+    <t>Maximum points in a grid using two traversals</t>
+  </si>
+  <si>
+    <t>number of binary strings without consecutive 1’s</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +512,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -526,16 +532,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -546,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -566,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -586,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -595,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -606,36 +612,60 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>number of binary strings without consecutive 1’s</t>
+  </si>
+  <si>
+    <t>Shortest Common Supersequence</t>
+  </si>
+  <si>
+    <t>Maximum number of A’s using given four keys</t>
+  </si>
+  <si>
+    <t>think about the transform func</t>
   </si>
 </sst>
 </file>
@@ -101,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,9 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +461,7 @@
     <col min="3" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,12 +686,47 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>think about the transform func</t>
+  </si>
+  <si>
+    <t>Vertex_Cover_Problem</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +734,46 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Verify Preorder Sequence in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>leetcode 255</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +780,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -97,9 +97,6 @@
     <t>think about the transform func</t>
   </si>
   <si>
-    <t>Vertex_Cover_Problem</t>
-  </si>
-  <si>
     <t>Weighted Job Scheduling</t>
   </si>
   <si>
@@ -107,6 +104,12 @@
   </si>
   <si>
     <t>leetcode 255</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>leetcode 297</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -767,17 +770,14 @@
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
@@ -794,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>leetcode 297</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>leetcode 236</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,6 +803,23 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>leetcode 236</t>
+  </si>
+  <si>
+    <t>Largest BST Subtree</t>
+  </si>
+  <si>
+    <t>leetcode 333</t>
   </si>
 </sst>
 </file>
@@ -157,13 +163,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -510,7 +519,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -530,7 +539,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -550,7 +559,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -570,7 +579,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -590,7 +599,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -610,7 +619,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -630,7 +639,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -650,7 +659,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -670,7 +679,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -690,7 +699,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -710,7 +719,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -730,7 +739,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -753,7 +762,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -773,7 +782,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -790,7 +799,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -807,7 +816,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -818,6 +827,23 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>leetcode 333</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>leetcode 114</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +852,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>leetcode 114</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Node</t>
+  </si>
+  <si>
+    <t>leetcode 222</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,6 +875,23 @@
         <v>37</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>leetcode 222</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>leetcode 105</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>leetcode 272</t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,6 +907,40 @@
         <v>39</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>leetcode 272</t>
+  </si>
+  <si>
+    <t>Binary Tree Upside Down</t>
+  </si>
+  <si>
+    <t>leetcode 156</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,6 +947,23 @@
         <v>44</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>leetcode 156</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>leetcode 145</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,6 +970,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>leetcode 145</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>leetcode 124</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +993,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>leetcode 124</t>
+  </si>
+  <si>
+    <t>Bottom View of a Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
@@ -1010,6 +1013,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Bottom View of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Print Nodes in Top View of Binary Tree</t>
+  </si>
+  <si>
+    <t>Remove nodes on root to leaf paths of length &lt; K</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1036,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Remove nodes on root to leaf paths of length &lt; K</t>
+  </si>
+  <si>
+    <t>Directed Graph</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>BFS, DFS</t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,6 +1079,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -178,13 +178,16 @@
     <t>Remove nodes on root to leaf paths of length &lt; K</t>
   </si>
   <si>
-    <t>Directed Graph</t>
-  </si>
-  <si>
     <t>Graph</t>
   </si>
   <si>
     <t>BFS, DFS</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>leetcode 133</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,10 +1087,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>54</v>
@@ -1097,6 +1100,23 @@
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>leetcode 133</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>leetcode 332</t>
+  </si>
+  <si>
+    <t>dfs edge not vertex</t>
   </si>
 </sst>
 </file>
@@ -544,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -895,7 +904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -912,7 +921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -929,7 +938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -946,7 +955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -963,7 +972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -980,7 +989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1082,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1117,6 +1126,26 @@
       </c>
       <c r="F30" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>dfs edge not vertex</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>leetcode 310</t>
   </si>
 </sst>
 </file>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1154,23 @@
         <v>60</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t>leetcode 310</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Topo Sort</t>
+  </si>
+  <si>
+    <t>leetcode 210</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>BFS</t>
   </si>
 </sst>
 </file>
@@ -559,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1139,9 @@
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1141,6 +1159,9 @@
       <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1161,6 +1182,9 @@
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1169,6 +1193,26 @@
       </c>
       <c r="F32" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>BFS</t>
+  </si>
+  <si>
+    <t>Snake and Ladder Problem</t>
   </si>
 </sst>
 </file>
@@ -574,23 +577,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -611,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -631,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -651,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -671,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -691,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -711,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -731,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -751,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -771,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -791,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -811,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -831,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -854,7 +857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -874,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -891,7 +894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -908,7 +911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -925,7 +928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -942,7 +945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -959,7 +962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -976,7 +979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -993,7 +996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1061,13 +1064,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,13 +1082,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1095,13 +1100,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1112,14 +1118,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1132,14 +1138,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1152,14 +1158,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1175,14 +1181,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1195,14 +1201,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1213,6 +1219,26 @@
       </c>
       <c r="F33" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>Snake and Ladder Problem</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>leetcode 269</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
   </si>
 </sst>
 </file>
@@ -577,23 +586,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -614,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -634,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -654,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -674,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -694,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -714,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -734,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -754,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -774,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -794,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -814,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -834,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -857,7 +866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -877,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -894,7 +903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -911,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -928,7 +937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -945,7 +954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -962,7 +971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -979,7 +988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1082,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1100,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1138,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1239,6 +1248,34 @@
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Graph/UF</t>
+  </si>
+  <si>
+    <t>leetcode 200</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>leetcode 305</t>
   </si>
 </sst>
 </file>
@@ -586,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,6 +1289,32 @@
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="78">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>leetcode 305</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>leetcode 323</t>
   </si>
 </sst>
 </file>
@@ -598,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,6 +1322,23 @@
         <v>75</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>leetcode 323</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>leetcode 261</t>
   </si>
 </sst>
 </file>
@@ -604,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,6 +1345,23 @@
         <v>77</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="86">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -254,6 +254,24 @@
   </si>
   <si>
     <t>leetcode 261</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>print all permutations of a given string</t>
+  </si>
+  <si>
+    <t>Try to use both DP and backtracking</t>
+  </si>
+  <si>
+    <t>backTacking</t>
+  </si>
+  <si>
+    <t>backTacking, DO</t>
+  </si>
+  <si>
+    <t>leetcode 139</t>
   </si>
 </sst>
 </file>
@@ -295,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +642,7 @@
     <col min="3" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1234,7 +1253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1254,7 +1273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1274,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1294,7 +1313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1311,7 +1330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1328,7 +1347,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1345,7 +1364,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1362,7 +1381,46 @@
         <v>79</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -265,13 +265,16 @@
     <t>Try to use both DP and backtracking</t>
   </si>
   <si>
-    <t>backTacking</t>
-  </si>
-  <si>
-    <t>backTacking, DO</t>
-  </si>
-  <si>
     <t>leetcode 139</t>
+  </si>
+  <si>
+    <t>Hamiltonian Cycle</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>backtracking, DP</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,9 +1392,11 @@
         <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>15</v>
       </c>
@@ -1407,16 +1412,39 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>backtracking, DP</t>
+  </si>
+  <si>
+    <t>Solving Cryptarithmetic Puzzles</t>
+  </si>
+  <si>
+    <t>cut branch while do the math</t>
   </si>
 </sst>
 </file>
@@ -632,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,6 +1453,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>cut branch while do the math</t>
+  </si>
+  <si>
+    <t>DFS/UF</t>
   </si>
 </sst>
 </file>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1332,9 @@
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>72</v>
       </c>
@@ -1346,6 +1352,9 @@
       <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1363,6 +1372,9 @@
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1379,6 +1391,9 @@
       </c>
       <c r="B39" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>72</v>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -284,6 +284,21 @@
   </si>
   <si>
     <t>DFS/UF</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>String/Trie</t>
+  </si>
+  <si>
+    <t>leetcode 212</t>
+  </si>
+  <si>
+    <t>Word Pattern II</t>
+  </si>
+  <si>
+    <t>leetcode 291</t>
   </si>
 </sst>
 </file>
@@ -641,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,6 +1506,46 @@
         <v>88</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -299,6 +299,15 @@
   </si>
   <si>
     <t>leetcode 291</t>
+  </si>
+  <si>
+    <t>Word Ladder II</t>
+  </si>
+  <si>
+    <t>backtracking.BFS</t>
+  </si>
+  <si>
+    <t>leetcode 126</t>
   </si>
 </sst>
 </file>
@@ -656,17 +665,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="4" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" customWidth="1"/>
@@ -1546,6 +1556,26 @@
         <v>94</v>
       </c>
     </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>leetcode 126</t>
+  </si>
+  <si>
+    <t>Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>leetcode 93</t>
   </si>
 </sst>
 </file>
@@ -665,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,6 +1582,26 @@
         <v>97</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="102">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>leetcode 93</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>leetcode 78</t>
   </si>
 </sst>
 </file>
@@ -671,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,6 +1608,26 @@
         <v>99</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>leetcode 78</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>leetcode 320</t>
   </si>
 </sst>
 </file>
@@ -677,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,6 +1634,26 @@
         <v>101</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="106">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>leetcode 320</t>
+  </si>
+  <si>
+    <t>Combination Sum III</t>
+  </si>
+  <si>
+    <t>leetcode 216</t>
   </si>
 </sst>
 </file>
@@ -683,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,6 +1660,26 @@
         <v>103</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>leetcode 216</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>leetcode 247</t>
+  </si>
+  <si>
+    <t>use both backtracing and recursion</t>
   </si>
 </sst>
 </file>
@@ -689,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1660,7 +1669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1678,6 +1687,29 @@
       </c>
       <c r="F50" s="1" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="111">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>use both backtracing and recursion</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>leetcode 329</t>
   </si>
 </sst>
 </file>
@@ -698,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,6 +1718,26 @@
         <v>108</v>
       </c>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="113">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>leetcode 329</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>leetcode 282</t>
   </si>
 </sst>
 </file>
@@ -704,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,6 +1744,26 @@
         <v>110</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>leetcode 282</t>
+  </si>
+  <si>
+    <t>Segment Tree Build Query Modify</t>
+  </si>
+  <si>
+    <t>SegmentTree</t>
+  </si>
+  <si>
+    <t>lintcode 201/202/203</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -710,1058 +722,1238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>Interval Minimum Number</t>
+  </si>
+  <si>
+    <t>lintcode 205</t>
   </si>
 </sst>
 </file>
@@ -722,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,6 +1962,26 @@
         <v>115</v>
       </c>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="122">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>lintcode 205</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>lintcode 307</t>
+  </si>
+  <si>
+    <t>SegmentTree/BIT</t>
   </si>
 </sst>
 </file>
@@ -728,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +749,7 @@
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.28515625" customWidth="1"/>
@@ -1982,6 +1991,26 @@
         <v>118</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>SegmentTree/BIT</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>lintcode 315</t>
   </si>
 </sst>
 </file>
@@ -737,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,6 +2017,26 @@
         <v>120</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -386,6 +386,21 @@
   </si>
   <si>
     <t>lintcode 315</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Divid &amp; Conquer</t>
+  </si>
+  <si>
+    <t>Balanced Tree</t>
+  </si>
+  <si>
+    <t>leetcode 327</t>
+  </si>
+  <si>
+    <t>Try both tree and divid and conquer</t>
   </si>
 </sst>
 </file>
@@ -743,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,6 +2042,9 @@
       <c r="C57" s="3">
         <v>5</v>
       </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>114</v>
       </c>
@@ -2035,6 +2053,32 @@
       </c>
       <c r="G57" s="1" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="132">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>Try both tree and divid and conquer</t>
+  </si>
+  <si>
+    <t>Implement_Trie</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>leetcode 208</t>
   </si>
 </sst>
 </file>
@@ -758,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,6 +2090,26 @@
         <v>128</v>
       </c>
     </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="134">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>leetcode 208</t>
+  </si>
+  <si>
+    <t>Add and Search Word</t>
+  </si>
+  <si>
+    <t>leetcode 211</t>
   </si>
 </sst>
 </file>
@@ -767,25 +773,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -809,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -832,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -855,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -878,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -901,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -924,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -947,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -970,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -993,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2108,6 +2114,26 @@
       </c>
       <c r="G59" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="136">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>leetcode 211</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>leetcode 336</t>
   </si>
 </sst>
 </file>
@@ -773,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,6 +2142,29 @@
         <v>133</v>
       </c>
     </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="140">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -422,6 +422,18 @@
   </si>
   <si>
     <t>leetcode 336</t>
+  </si>
+  <si>
+    <t>Longest prefix matching</t>
+  </si>
+  <si>
+    <t>Max Tree</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>lintcode</t>
   </si>
 </sst>
 </file>
@@ -779,25 +791,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -821,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -844,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -867,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -890,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -913,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -936,7 +948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -959,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -982,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1123,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1283,7 +1295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1303,7 +1315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1343,7 +1355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1385,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1406,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1570,7 +1582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1593,7 +1605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1616,7 +1628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1639,7 +1651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1760,7 +1772,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1947,7 +1959,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2033,7 +2045,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2053,7 +2065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2163,6 +2175,46 @@
       </c>
       <c r="G61" s="1" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="143">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -434,6 +434,15 @@
   </si>
   <si>
     <t>lintcode</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>medidium</t>
+  </si>
+  <si>
+    <t>Leetcode 84</t>
   </si>
 </sst>
 </file>
@@ -791,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2119,7 @@
       <c r="G58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2215,6 +2224,26 @@
       </c>
       <c r="G63" s="1" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="3">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>Leetcode 84</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Leetcode 239</t>
   </si>
 </sst>
 </file>
@@ -800,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,6 +2252,29 @@
         <v>142</v>
       </c>
     </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="147">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>Leetcode 239</t>
+  </si>
+  <si>
+    <t>Expression Tree Build</t>
+  </si>
+  <si>
+    <t>lintcode367</t>
   </si>
 </sst>
 </file>
@@ -808,23 +814,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -848,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -871,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -894,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -917,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -940,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -963,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -986,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2272,8 +2278,25 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="151">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -455,6 +455,18 @@
   </si>
   <si>
     <t>lintcode367</t>
+  </si>
+  <si>
+    <t>basic calculator</t>
+  </si>
+  <si>
+    <t>Leetcode 224</t>
+  </si>
+  <si>
+    <t>Expression Evaluation</t>
+  </si>
+  <si>
+    <t>lintcode368</t>
   </si>
 </sst>
 </file>
@@ -812,25 +824,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -854,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -877,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -900,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -923,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -946,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -969,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -992,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1176,7 +1188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1296,7 +1308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1316,7 +1328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1557,7 +1569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1603,7 +1615,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1672,7 +1684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1744,7 +1756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1793,7 +1805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1816,7 +1828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1885,7 +1897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2003,7 +2015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2026,7 +2038,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2135,7 +2147,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2155,7 +2167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2296,6 +2308,46 @@
       </c>
       <c r="G66" s="1" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="3">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="153">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>lintcode368</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>Leetcode 227</t>
   </si>
 </sst>
 </file>
@@ -824,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,6 +2356,26 @@
         <v>150</v>
       </c>
     </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="3">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="154">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -439,9 +439,6 @@
     <t>Largest Rectangle in Histogram</t>
   </si>
   <si>
-    <t>medidium</t>
-  </si>
-  <si>
     <t>Leetcode 84</t>
   </si>
   <si>
@@ -473,6 +470,12 @@
   </si>
   <si>
     <t>Leetcode 227</t>
+  </si>
+  <si>
+    <t>Convert Expression to Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>lintcode 370</t>
   </si>
 </sst>
 </file>
@@ -830,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,10 +2273,10 @@
         <v>138</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,7 +2284,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3">
         <v>6</v>
@@ -2290,10 +2293,10 @@
         <v>138</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2301,7 +2304,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="3">
         <v>6</v>
@@ -2313,7 +2316,7 @@
         <v>43</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,7 +2324,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3">
         <v>6</v>
@@ -2330,10 +2333,10 @@
         <v>138</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2341,7 +2344,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" s="3">
         <v>6</v>
@@ -2353,7 +2356,7 @@
         <v>43</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2361,7 +2364,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="3">
         <v>6</v>
@@ -2370,10 +2373,30 @@
         <v>138</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>152</v>
+      </c>
+      <c r="C70" s="3">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -476,6 +476,15 @@
   </si>
   <si>
     <t>lintcode 370</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>leetcode 150</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
 </sst>
 </file>
@@ -833,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2288,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2318,8 +2327,11 @@
       <c r="G66" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2339,7 +2351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2358,8 +2370,11 @@
       <c r="G68" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2379,7 +2394,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2397,6 +2412,29 @@
       </c>
       <c r="G70" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="3">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="159">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>exp</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Greedy</t>
   </si>
 </sst>
 </file>
@@ -842,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,6 +2443,29 @@
         <v>155</v>
       </c>
     </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="3">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="161">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Greedy</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>leetcode 134</t>
   </si>
 </sst>
 </file>
@@ -848,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,6 +2472,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="3">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="163">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>leetcode 134</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>leetcode 179</t>
   </si>
 </sst>
 </file>
@@ -854,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,6 +2501,29 @@
         <v>160</v>
       </c>
     </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="3">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="165">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>leetcode 179</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create Maximum Number</t>
+  </si>
+  <si>
+    <t>leetcode 321</t>
   </si>
 </sst>
 </file>
@@ -860,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,6 +2530,29 @@
         <v>162</v>
       </c>
     </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="3">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="169">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>leetcode 321</t>
+  </si>
+  <si>
+    <t>Delete Digits</t>
+  </si>
+  <si>
+    <t>lingcode 182</t>
+  </si>
+  <si>
+    <t>Jump game</t>
+  </si>
+  <si>
+    <t>leetcode 55</t>
   </si>
 </sst>
 </file>
@@ -524,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +546,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,6 +616,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +990,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -938,7 +1013,7 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -961,7 +1036,7 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -984,7 +1059,7 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1007,7 +1082,7 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1030,7 +1105,7 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1053,7 +1128,7 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1076,7 +1151,7 @@
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1099,7 +1174,7 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1122,7 +1197,7 @@
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1145,7 +1220,7 @@
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1168,7 +1243,7 @@
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1194,7 +1269,7 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1217,7 +1292,7 @@
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1237,7 +1312,7 @@
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1257,7 +1332,7 @@
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1277,7 +1352,7 @@
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1297,7 +1372,7 @@
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1317,7 +1392,7 @@
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1337,7 +1412,7 @@
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1357,7 +1432,7 @@
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1377,7 +1452,7 @@
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1397,7 +1472,7 @@
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1417,7 +1492,7 @@
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1437,7 +1512,7 @@
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>2</v>
       </c>
       <c r="D26" s="1"/>
@@ -1458,7 +1533,7 @@
       <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>2</v>
       </c>
       <c r="D27" s="1"/>
@@ -1479,7 +1554,7 @@
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
@@ -1500,7 +1575,7 @@
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1523,7 +1598,7 @@
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="7">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1546,7 +1621,7 @@
       <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1572,7 +1647,7 @@
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1595,7 +1670,7 @@
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="7">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1618,7 +1693,7 @@
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="7">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1641,7 +1716,7 @@
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="7">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1664,7 +1739,7 @@
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1687,7 +1762,7 @@
       <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1710,7 +1785,7 @@
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1733,7 +1808,7 @@
       <c r="B39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1756,7 +1831,7 @@
       <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="8">
         <v>4</v>
       </c>
       <c r="D40" t="s">
@@ -1779,7 +1854,7 @@
       <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="8">
         <v>4</v>
       </c>
       <c r="D41" t="s">
@@ -1805,7 +1880,7 @@
       <c r="B42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="8">
         <v>4</v>
       </c>
       <c r="D42" t="s">
@@ -1828,7 +1903,7 @@
       <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="8">
         <v>4</v>
       </c>
       <c r="D43" t="s">
@@ -1854,7 +1929,7 @@
       <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="8">
         <v>4</v>
       </c>
       <c r="D44" t="s">
@@ -1877,7 +1952,7 @@
       <c r="B45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="8">
         <v>4</v>
       </c>
       <c r="D45" t="s">
@@ -1900,7 +1975,7 @@
       <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="8">
         <v>4</v>
       </c>
       <c r="D46" t="s">
@@ -1923,7 +1998,7 @@
       <c r="B47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="8">
         <v>4</v>
       </c>
       <c r="D47" t="s">
@@ -1946,7 +2021,7 @@
       <c r="B48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="8">
         <v>4</v>
       </c>
       <c r="D48" t="s">
@@ -1969,7 +2044,7 @@
       <c r="B49" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="8">
         <v>4</v>
       </c>
       <c r="D49" t="s">
@@ -1992,7 +2067,7 @@
       <c r="B50" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="8">
         <v>4</v>
       </c>
       <c r="D50" t="s">
@@ -2015,7 +2090,7 @@
       <c r="B51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="8">
         <v>4</v>
       </c>
       <c r="D51" t="s">
@@ -2041,7 +2116,7 @@
       <c r="B52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="8">
         <v>4</v>
       </c>
       <c r="D52" t="s">
@@ -2064,7 +2139,7 @@
       <c r="B53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="8">
         <v>4</v>
       </c>
       <c r="D53" t="s">
@@ -2087,7 +2162,7 @@
       <c r="B54" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="9">
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2107,7 +2182,7 @@
       <c r="B55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="9">
         <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2127,7 +2202,7 @@
       <c r="B56" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="9">
         <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2147,7 +2222,7 @@
       <c r="B57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="9">
         <v>5</v>
       </c>
       <c r="D57" t="s">
@@ -2170,7 +2245,7 @@
       <c r="B58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="9">
         <v>5</v>
       </c>
       <c r="D58" t="s">
@@ -2196,7 +2271,7 @@
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="9">
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -2216,7 +2291,7 @@
       <c r="B60" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="9">
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2236,7 +2311,7 @@
       <c r="B61" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="9">
         <v>5</v>
       </c>
       <c r="D61" t="s">
@@ -2259,7 +2334,7 @@
       <c r="B62" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="9">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -2279,7 +2354,7 @@
       <c r="B63" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="10">
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -2299,7 +2374,7 @@
       <c r="B64" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="10">
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -2319,7 +2394,7 @@
       <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="10">
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -2339,7 +2414,7 @@
       <c r="B66" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="10">
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -2362,7 +2437,7 @@
       <c r="B67" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="10">
         <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -2382,7 +2457,7 @@
       <c r="B68" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="10">
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -2405,7 +2480,7 @@
       <c r="B69" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="10">
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -2425,7 +2500,7 @@
       <c r="B70" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="10">
         <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -2448,7 +2523,7 @@
       <c r="B71" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="10">
         <v>6</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -2468,7 +2543,7 @@
       <c r="B72" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="11">
         <v>7</v>
       </c>
       <c r="D72" t="s">
@@ -2491,7 +2566,7 @@
       <c r="B73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="11">
         <v>7</v>
       </c>
       <c r="D73" t="s">
@@ -2514,7 +2589,7 @@
       <c r="B74" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="11">
         <v>7</v>
       </c>
       <c r="D74" t="s">
@@ -2537,7 +2612,7 @@
       <c r="B75" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="11">
         <v>7</v>
       </c>
       <c r="D75" t="s">
@@ -2551,6 +2626,52 @@
       </c>
       <c r="G75" s="1" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="11">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="11">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="171">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>leetcode 55</t>
+  </si>
+  <si>
+    <t>Jump game II</t>
+  </si>
+  <si>
+    <t>leetcode 45</t>
   </si>
 </sst>
 </file>
@@ -941,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,6 +2680,29 @@
         <v>168</v>
       </c>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="11">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="173">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -527,6 +527,12 @@
   </si>
   <si>
     <t>leetcode 45</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>leetcode 31</t>
   </si>
 </sst>
 </file>
@@ -947,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2688,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>169</v>
@@ -2701,6 +2707,29 @@
       </c>
       <c r="G78" s="1" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="11">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="175">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>leetcode 31</t>
+  </si>
+  <si>
+    <t>Majority Element II</t>
+  </si>
+  <si>
+    <t>leetcode 229</t>
   </si>
 </sst>
 </file>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,6 +2738,29 @@
         <v>172</v>
       </c>
     </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="11">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="178">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -539,6 +539,15 @@
   </si>
   <si>
     <t>leetcode 229</t>
+  </si>
+  <si>
+    <t>Maximum Subarray Difference</t>
+  </si>
+  <si>
+    <t>lintcode 45</t>
+  </si>
+  <si>
+    <t>greedy + simple 1D DP</t>
   </si>
 </sst>
 </file>
@@ -959,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,6 +2770,32 @@
         <v>174</v>
       </c>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="11">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="180">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>greedy + simple 1D DP</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>leetcode 135</t>
   </si>
 </sst>
 </file>
@@ -968,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,6 +2802,29 @@
         <v>177</v>
       </c>
     </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="11">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>leetcode 135</t>
+  </si>
+  <si>
+    <t>Maximum Gap</t>
+  </si>
+  <si>
+    <t>leetcode 164</t>
   </si>
 </sst>
 </file>
@@ -974,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,6 +2831,29 @@
         <v>179</v>
       </c>
     </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="11">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="184">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -560,6 +560,12 @@
   </si>
   <si>
     <t>leetcode 164</t>
+  </si>
+  <si>
+    <t>First_Missing_Positive</t>
+  </si>
+  <si>
+    <t>leetcode 41</t>
   </si>
 </sst>
 </file>
@@ -980,25 +986,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1022,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2852,6 +2858,29 @@
       </c>
       <c r="G83" s="1" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="11">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="186">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>leetcode 41</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>leetcode 253</t>
   </si>
 </sst>
 </file>
@@ -986,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2883,6 +2889,29 @@
         <v>183</v>
       </c>
     </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="11">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="189">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -572,6 +572,15 @@
   </si>
   <si>
     <t>leetcode 253</t>
+  </si>
+  <si>
+    <t>check if two given line segments intersect</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>point lies inside or outside a polygon</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +651,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -655,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,6 +701,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -992,25 +1010,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1034,7 +1052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1149,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1195,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1264,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1336,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1356,7 +1374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1376,7 +1394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1396,7 +1414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1416,7 +1434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1436,7 +1454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1516,7 +1534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1536,7 +1554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1556,7 +1574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1598,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1619,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1642,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1714,7 +1732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1760,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1783,7 +1801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1806,7 +1824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1829,7 +1847,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1852,7 +1870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1898,7 +1916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1947,7 +1965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1973,7 +1991,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1996,7 +2014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2065,7 +2083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2088,7 +2106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2111,7 +2129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2160,7 +2178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2206,7 +2224,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2226,7 +2244,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2246,7 +2264,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2266,7 +2284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2289,7 +2307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2315,7 +2333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2335,7 +2353,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2355,7 +2373,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2378,7 +2396,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2398,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2418,7 +2436,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2438,7 +2456,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2458,7 +2476,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2501,7 +2519,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2524,7 +2542,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2544,7 +2562,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2587,7 +2605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2610,7 +2628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2633,7 +2651,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2656,7 +2674,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2679,7 +2697,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2702,7 +2720,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2725,7 +2743,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2748,7 +2766,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2820,7 +2838,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2843,7 +2861,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2866,7 +2884,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2910,6 +2928,46 @@
       </c>
       <c r="G85" s="1" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="12">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>187</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="12">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>187</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="192">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -581,6 +581,15 @@
   </si>
   <si>
     <t>point lies inside or outside a polygon</t>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
+  </si>
+  <si>
+    <t>Two Point</t>
+  </si>
+  <si>
+    <t>leetcode 30</t>
   </si>
 </sst>
 </file>
@@ -1010,25 +1019,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1052,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1213,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1394,7 +1403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1534,7 +1543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1554,7 +1563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1660,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1942,7 +1951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1965,7 +1974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2037,7 +2046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2244,7 +2253,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2264,7 +2273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2284,7 +2293,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2353,7 +2362,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2396,7 +2405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2476,7 +2485,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2585,7 +2594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2605,7 +2614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2628,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2651,7 +2660,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2674,7 +2683,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2743,7 +2752,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2766,7 +2775,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2789,7 +2798,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2838,7 +2847,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2968,6 +2977,29 @@
       </c>
       <c r="G87" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="11">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="195">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -590,6 +590,15 @@
   </si>
   <si>
     <t>leetcode 30</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>leetcode 80</t>
+  </si>
+  <si>
+    <t>Sliding window</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2990,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
@@ -3000,6 +3009,29 @@
       </c>
       <c r="G88" s="1" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="11">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="196">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>Sliding window</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3034,6 +3037,29 @@
         <v>193</v>
       </c>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="11">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="202">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -602,6 +602,24 @@
   </si>
   <si>
     <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>leetcode 3</t>
+  </si>
+  <si>
+    <t>pay attention for easy bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked List Cycle II </t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>leetcode 142</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3048,7 +3066,7 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
@@ -3058,6 +3076,55 @@
       </c>
       <c r="G90" s="1" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="11">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="11">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="204">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>leetcode 142</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>leetcode 287</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3016,7 +3022,7 @@
       <c r="B88" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="5">
         <v>9</v>
       </c>
       <c r="D88" t="s">
@@ -3039,7 +3045,7 @@
       <c r="B89" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="5">
         <v>9</v>
       </c>
       <c r="D89" t="s">
@@ -3062,7 +3068,7 @@
       <c r="B90" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="5">
         <v>9</v>
       </c>
       <c r="D90" t="s">
@@ -3085,7 +3091,7 @@
       <c r="B91" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="5">
         <v>9</v>
       </c>
       <c r="D91" t="s">
@@ -3111,7 +3117,7 @@
       <c r="B92" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="5">
         <v>9</v>
       </c>
       <c r="D92" t="s">
@@ -3125,6 +3131,29 @@
       </c>
       <c r="G92" s="1" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="5">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>190</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="206">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <t>leetcode 287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Sum Smaller </t>
+  </si>
+  <si>
+    <t>leetcode 259</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3156,6 +3162,29 @@
         <v>203</v>
       </c>
     </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="5">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="208">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -632,6 +632,12 @@
   </si>
   <si>
     <t>leetcode 259</t>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
+  </si>
+  <si>
+    <t>leetcode 28</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3185,6 +3191,29 @@
         <v>205</v>
       </c>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="5">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>190</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="213">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -638,6 +638,21 @@
   </si>
   <si>
     <t>leetcode 28</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>leetcode 33</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>leetcode 74</t>
   </si>
 </sst>
 </file>
@@ -1067,9 +1082,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -3214,6 +3229,52 @@
         <v>207</v>
       </c>
     </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="5">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="5">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="215">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -653,6 +653,12 @@
   </si>
   <si>
     <t>leetcode 74</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>leetcode 4</t>
   </si>
 </sst>
 </file>
@@ -1082,25 +1088,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2884,7 +2890,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3137,7 +3143,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3206,7 +3212,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3273,6 +3279,29 @@
       </c>
       <c r="G97" s="1" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="5">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="217">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>leetcode 4</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>binary search/DP</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,6 +3310,29 @@
         <v>214</v>
       </c>
     </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="5">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="222">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -665,6 +665,23 @@
   </si>
   <si>
     <t>binary search/DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H-Index II</t>
+  </si>
+  <si>
+    <t>leetcode 275</t>
+  </si>
+  <si>
+    <t>think about the h-index: 
+book = h, least citation &gt;=h; 
+citation = h, books &gt;=h</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>leetcode 154</t>
   </si>
 </sst>
 </file>
@@ -754,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,6 +806,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,7 +3284,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3287,7 +3307,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3310,7 +3330,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3331,6 +3351,55 @@
       </c>
       <c r="G99" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="5">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" s="5">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="224">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -682,6 +682,12 @@
   </si>
   <si>
     <t>leetcode 154</t>
+  </si>
+  <si>
+    <t>Wood Cut</t>
+  </si>
+  <si>
+    <t>leetcode 183</t>
   </si>
 </sst>
 </file>
@@ -1114,15 +1120,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -3402,6 +3408,29 @@
         <v>221</v>
       </c>
     </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="5">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="228">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -688,6 +688,18 @@
   </si>
   <si>
     <t>leetcode 183</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>basic structure</t>
+  </si>
+  <si>
+    <t>leetcode 148</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,6 +3443,29 @@
         <v>223</v>
       </c>
     </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" s="5">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="230">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -700,6 +700,12 @@
   </si>
   <si>
     <t>leetcode 148</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>leetcode 25</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,6 +3472,26 @@
         <v>227</v>
       </c>
     </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="5">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="232">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -706,6 +706,12 @@
   </si>
   <si>
     <t>leetcode 25</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>leetcode 23</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,6 +3498,29 @@
         <v>229</v>
       </c>
     </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="5">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="234">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -712,6 +712,12 @@
   </si>
   <si>
     <t>leetcode 23</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>leetcode 228</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,6 +3527,26 @@
         <v>231</v>
       </c>
     </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="5">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="236">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -718,6 +718,12 @@
   </si>
   <si>
     <t>leetcode 228</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>leetcode 56</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,6 +3553,26 @@
         <v>233</v>
       </c>
     </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="5">
+        <v>10</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="238">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -724,6 +724,12 @@
   </si>
   <si>
     <t>leetcode 56</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>leetcode 57</t>
   </si>
 </sst>
 </file>
@@ -1156,15 +1162,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H107"/>
+  <dimension ref="B1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1174,8 +1180,7 @@
     <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1198,10 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1221,10 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1244,10 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1267,10 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1290,10 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1313,10 +1303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1336,10 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1359,10 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1382,10 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1405,10 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1428,10 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1451,10 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1477,10 +1446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1500,10 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1520,10 +1483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1540,10 +1500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1560,10 +1517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1580,10 +1534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1600,10 +1551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1620,10 +1568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1640,10 +1585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1660,10 +1602,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
@@ -1680,10 +1619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1700,10 +1636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1720,10 +1653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1741,10 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1762,10 +1689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
@@ -1783,10 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1806,10 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
@@ -1829,10 +1747,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
@@ -1855,10 +1770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
@@ -1878,10 +1790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
@@ -1901,10 +1810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1924,10 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1947,10 +1850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
@@ -1970,10 +1870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
@@ -1993,10 +1890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
@@ -2016,10 +1910,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>78</v>
       </c>
@@ -2039,10 +1930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
@@ -2062,10 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>80</v>
       </c>
@@ -2088,10 +1973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>84</v>
       </c>
@@ -2111,10 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
@@ -2137,10 +2016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
@@ -2160,10 +2036,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>93</v>
       </c>
@@ -2183,10 +2056,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
@@ -2206,10 +2076,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>98</v>
       </c>
@@ -2229,10 +2096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>100</v>
       </c>
@@ -2252,10 +2116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>102</v>
       </c>
@@ -2275,10 +2136,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>104</v>
       </c>
@@ -2298,10 +2156,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>106</v>
       </c>
@@ -2324,10 +2179,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>109</v>
       </c>
@@ -2347,10 +2199,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>111</v>
       </c>
@@ -2370,10 +2219,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>113</v>
       </c>
@@ -2390,10 +2236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>117</v>
       </c>
@@ -2410,10 +2253,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>119</v>
       </c>
@@ -2430,10 +2270,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>122</v>
       </c>
@@ -2453,10 +2290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>124</v>
       </c>
@@ -2479,10 +2313,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
@@ -2499,10 +2330,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>132</v>
       </c>
@@ -2519,10 +2347,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>134</v>
       </c>
@@ -2542,10 +2367,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>136</v>
       </c>
@@ -2562,10 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>137</v>
       </c>
@@ -2582,10 +2401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>140</v>
       </c>
@@ -2602,10 +2418,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
@@ -2622,10 +2435,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>144</v>
       </c>
@@ -2645,10 +2455,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>146</v>
       </c>
@@ -2665,10 +2472,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>148</v>
       </c>
@@ -2688,10 +2492,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>150</v>
       </c>
@@ -2708,10 +2509,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>152</v>
       </c>
@@ -2731,10 +2529,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>154</v>
       </c>
@@ -2751,10 +2546,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>157</v>
       </c>
@@ -2774,10 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>159</v>
       </c>
@@ -2797,10 +2586,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>161</v>
       </c>
@@ -2820,10 +2606,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>163</v>
       </c>
@@ -2843,10 +2626,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>165</v>
       </c>
@@ -2866,10 +2646,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>167</v>
       </c>
@@ -2889,10 +2666,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>169</v>
       </c>
@@ -2912,10 +2686,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>171</v>
       </c>
@@ -2935,10 +2706,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>173</v>
       </c>
@@ -2958,10 +2726,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>175</v>
       </c>
@@ -2984,10 +2749,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>178</v>
       </c>
@@ -3007,10 +2769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>180</v>
       </c>
@@ -3030,10 +2789,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>182</v>
       </c>
@@ -3053,10 +2809,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>184</v>
       </c>
@@ -3076,10 +2829,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>186</v>
       </c>
@@ -3096,10 +2846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>188</v>
       </c>
@@ -3116,10 +2863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>189</v>
       </c>
@@ -3139,10 +2883,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>192</v>
       </c>
@@ -3162,10 +2903,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>195</v>
       </c>
@@ -3185,10 +2923,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>196</v>
       </c>
@@ -3211,10 +2946,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>199</v>
       </c>
@@ -3234,10 +2966,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>202</v>
       </c>
@@ -3257,10 +2986,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>204</v>
       </c>
@@ -3280,10 +3006,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>206</v>
       </c>
@@ -3303,10 +3026,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>208</v>
       </c>
@@ -3326,10 +3046,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>211</v>
       </c>
@@ -3349,10 +3066,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>213</v>
       </c>
@@ -3372,10 +3086,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>215</v>
       </c>
@@ -3395,10 +3106,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
+    <row r="100" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>217</v>
       </c>
@@ -3421,10 +3129,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>220</v>
       </c>
@@ -3444,10 +3149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>222</v>
       </c>
@@ -3467,10 +3169,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>224</v>
       </c>
@@ -3490,10 +3189,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>228</v>
       </c>
@@ -3510,10 +3206,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>230</v>
       </c>
@@ -3533,10 +3226,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>232</v>
       </c>
@@ -3553,10 +3243,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>234</v>
       </c>
@@ -3571,6 +3258,23 @@
       </c>
       <c r="G107" s="1" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" s="5">
+        <v>10</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="245">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -730,6 +730,27 @@
   </si>
   <si>
     <t>leetcode 57</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>leetcode 128</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>Game Of Life</t>
+  </si>
+  <si>
+    <t>leetcode 289</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>leetcode 163</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H108"/>
+  <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,6 +3298,60 @@
         <v>237</v>
       </c>
     </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="5">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="5">
+        <v>10</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="5">
+        <v>10</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="247">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -751,6 +751,12 @@
   </si>
   <si>
     <t>leetcode 163</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>leetcode 68</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H111"/>
+  <dimension ref="B1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,6 +3358,23 @@
         <v>244</v>
       </c>
     </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="5">
+        <v>10</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="249">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -757,6 +757,12 @@
   </si>
   <si>
     <t>leetcode 68</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>leetcode 71</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H112"/>
+  <dimension ref="B1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,6 +3381,23 @@
         <v>246</v>
       </c>
     </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="5">
+        <v>10</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="251">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>leetcode 71</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>leetcode 214</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H113"/>
+  <dimension ref="B1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,6 +3404,23 @@
         <v>248</v>
       </c>
     </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="5">
+        <v>10</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="253">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -769,6 +769,12 @@
   </si>
   <si>
     <t>leetcode 214</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II</t>
+  </si>
+  <si>
+    <t>leetcode 158</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H114"/>
+  <dimension ref="B1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,6 +3427,23 @@
         <v>250</v>
       </c>
     </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="5">
+        <v>10</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="257">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -775,6 +775,18 @@
   </si>
   <si>
     <t>leetcode 158</t>
+  </si>
+  <si>
+    <t>Integer to English words</t>
+  </si>
+  <si>
+    <t>leetcode 273</t>
+  </si>
+  <si>
+    <t>leetcode 165</t>
+  </si>
+  <si>
+    <t>Compare Version Numbers</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H115"/>
+  <dimension ref="B1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,6 +3456,40 @@
         <v>252</v>
       </c>
     </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C116" s="5">
+        <v>10</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="5">
+        <v>10</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="259">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -787,6 +787,12 @@
   </si>
   <si>
     <t>Compare Version Numbers</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>leetcode 85</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H117"/>
+  <dimension ref="B1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1268,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -1271,18 +1277,18 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1291,7 +1297,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -1302,7 +1308,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1311,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -1322,7 +1328,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1334,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>5</v>
@@ -1342,7 +1348,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1351,10 +1357,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1382,7 +1388,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1394,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>5</v>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1411,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>5</v>
@@ -1422,7 +1428,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1431,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
@@ -1442,7 +1448,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1454,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>5</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1471,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1491,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -1499,13 +1505,10 @@
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1514,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1522,27 +1525,33 @@
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
@@ -1554,12 +1563,12 @@
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
@@ -1571,12 +1580,12 @@
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -1588,12 +1597,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -1605,12 +1614,12 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -1622,12 +1631,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1639,12 +1648,12 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1653,15 +1662,15 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1670,15 +1679,15 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1690,12 +1699,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1707,17 +1716,16 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
       </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1725,12 +1733,12 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1748,7 +1756,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1766,19 +1774,17 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>5</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
@@ -1798,21 +1804,21 @@
         <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>54</v>
@@ -1821,21 +1827,18 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="7">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>54</v>
@@ -1844,18 +1847,21 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="7">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>54</v>
@@ -1864,18 +1870,18 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>54</v>
@@ -1884,18 +1890,18 @@
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>54</v>
@@ -1904,32 +1910,32 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
@@ -1944,12 +1950,12 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -1964,18 +1970,18 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>72</v>
@@ -1984,38 +1990,38 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" s="8">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>80</v>
       </c>
       <c r="C41" s="8">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -2024,35 +2030,35 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>84</v>
+      <c r="B42" t="s">
+        <v>80</v>
       </c>
       <c r="C42" s="8">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" s="8">
         <v>4</v>
@@ -2061,21 +2067,18 @@
         <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C44" s="8">
         <v>4</v>
@@ -2084,18 +2087,21 @@
         <v>85</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="8">
         <v>4</v>
@@ -2104,24 +2110,24 @@
         <v>85</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="8">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -2130,32 +2136,32 @@
         <v>43</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
@@ -2164,18 +2170,18 @@
         <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -2184,18 +2190,18 @@
         <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -2204,18 +2210,18 @@
         <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
@@ -2230,15 +2236,12 @@
         <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
@@ -2253,12 +2256,15 @@
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2267,35 +2273,38 @@
         <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C54" s="8">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C55" s="9">
         <v>5</v>
@@ -2304,52 +2313,49 @@
         <v>114</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="9">
         <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C57" s="9">
         <v>5</v>
       </c>
-      <c r="D57" t="s">
-        <v>125</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" s="9">
         <v>5</v>
@@ -2358,38 +2364,41 @@
         <v>125</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C59" s="9">
         <v>5</v>
       </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
@@ -2401,66 +2410,66 @@
         <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
       </c>
-      <c r="D61" t="s">
-        <v>85</v>
-      </c>
       <c r="E61" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
       </c>
+      <c r="D62" t="s">
+        <v>85</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C63" s="9">
+        <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C64" s="10">
         <v>6</v>
@@ -2472,12 +2481,12 @@
         <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C65" s="10">
         <v>6</v>
@@ -2489,12 +2498,12 @@
         <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C66" s="10">
         <v>6</v>
@@ -2503,18 +2512,15 @@
         <v>138</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" s="10">
         <v>6</v>
@@ -2523,15 +2529,18 @@
         <v>138</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C68" s="10">
         <v>6</v>
@@ -2540,18 +2549,15 @@
         <v>138</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C69" s="10">
         <v>6</v>
@@ -2560,15 +2566,18 @@
         <v>138</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2580,15 +2589,12 @@
         <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2597,35 +2603,35 @@
         <v>138</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="11">
-        <v>7</v>
-      </c>
-      <c r="D72" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C72" s="10">
+        <v>6</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C73" s="11">
         <v>7</v>
@@ -2637,15 +2643,15 @@
         <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C74" s="11">
         <v>7</v>
@@ -2660,12 +2666,12 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C75" s="11">
         <v>7</v>
@@ -2677,15 +2683,15 @@
         <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C76" s="11">
         <v>7</v>
@@ -2694,18 +2700,18 @@
         <v>158</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C77" s="11">
         <v>7</v>
@@ -2714,18 +2720,18 @@
         <v>158</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C78" s="11">
         <v>7</v>
@@ -2737,15 +2743,15 @@
         <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2760,12 +2766,12 @@
         <v>15</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2780,12 +2786,12 @@
         <v>15</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2800,15 +2806,12 @@
         <v>15</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2823,12 +2826,15 @@
         <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2843,12 +2849,12 @@
         <v>15</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2863,12 +2869,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2883,29 +2889,32 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C86" s="11">
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C87" s="12">
         <v>8</v>
@@ -2922,59 +2931,56 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C88" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C88" s="12">
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C89" s="5">
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C90" s="5">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>193</v>
@@ -2982,7 +2988,7 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" s="5">
         <v>9</v>
@@ -2997,35 +3003,35 @@
         <v>15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C92" s="5">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C93" s="5">
         <v>9</v>
@@ -3034,18 +3040,18 @@
         <v>190</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C94" s="5">
         <v>9</v>
@@ -3060,12 +3066,12 @@
         <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
@@ -3074,38 +3080,38 @@
         <v>190</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
@@ -3120,12 +3126,12 @@
         <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -3137,41 +3143,41 @@
         <v>11</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>11</v>
@@ -3180,15 +3186,12 @@
         <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
@@ -3203,12 +3206,15 @@
         <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
@@ -3220,39 +3226,42 @@
         <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C103" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C104" s="5">
         <v>10</v>
       </c>
+      <c r="D104" t="s">
+        <v>225</v>
+      </c>
       <c r="E104" s="1" t="s">
         <v>226</v>
       </c>
@@ -3260,19 +3269,16 @@
         <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C105" s="5">
         <v>10</v>
       </c>
-      <c r="D105" t="s">
-        <v>225</v>
-      </c>
       <c r="E105" s="1" t="s">
         <v>226</v>
       </c>
@@ -3280,29 +3286,32 @@
         <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C106" s="5">
         <v>10</v>
       </c>
+      <c r="D106" t="s">
+        <v>225</v>
+      </c>
       <c r="E106" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>234</v>
+      <c r="B107" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C107" s="5">
         <v>10</v>
@@ -3311,15 +3320,15 @@
         <v>226</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
-        <v>236</v>
+      <c r="B108" t="s">
+        <v>234</v>
       </c>
       <c r="C108" s="5">
         <v>10</v>
@@ -3331,19 +3340,16 @@
         <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
       </c>
-      <c r="D109" t="s">
-        <v>240</v>
-      </c>
       <c r="E109" s="1" t="s">
         <v>226</v>
       </c>
@@ -3351,16 +3357,19 @@
         <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
       </c>
+      <c r="D110" t="s">
+        <v>240</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>226</v>
       </c>
@@ -3368,12 +3377,12 @@
         <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
@@ -3385,12 +3394,12 @@
         <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
@@ -3399,15 +3408,15 @@
         <v>226</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
@@ -3416,15 +3425,15 @@
         <v>226</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
@@ -3436,12 +3445,12 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
@@ -3453,12 +3462,12 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -3470,12 +3479,12 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3484,9 +3493,26 @@
         <v>226</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" s="5">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="261">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -793,6 +793,12 @@
   </si>
   <si>
     <t>leetcode 85</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>leetcode 91</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H118"/>
+  <dimension ref="B1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1334,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1340,15 +1346,15 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1360,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1377,10 +1383,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>5</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1408,7 +1414,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1420,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>5</v>
@@ -1428,7 +1434,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1437,10 +1443,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1457,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -1468,7 +1474,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1480,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
@@ -1488,7 +1494,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1497,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1517,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1525,13 +1531,10 @@
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1540,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -1548,27 +1551,33 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
@@ -1580,12 +1589,12 @@
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -1597,12 +1606,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -1614,12 +1623,12 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -1631,12 +1640,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1648,12 +1657,12 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1665,12 +1674,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1679,15 +1688,15 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1696,15 +1705,15 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1716,12 +1725,12 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1733,17 +1742,16 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1751,12 +1759,12 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1772,9 +1780,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1790,29 +1798,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="7">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -1824,21 +1830,21 @@
         <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="7">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>54</v>
@@ -1847,21 +1853,18 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="7">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>54</v>
@@ -1870,18 +1873,21 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>54</v>
@@ -1890,18 +1896,18 @@
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>54</v>
@@ -1910,18 +1916,18 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
@@ -1930,32 +1936,32 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -1970,12 +1976,12 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
@@ -1990,18 +1996,18 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>72</v>
@@ -2010,38 +2016,38 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="8">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>80</v>
       </c>
       <c r="C42" s="8">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
@@ -2050,35 +2056,35 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>84</v>
+      <c r="B43" t="s">
+        <v>80</v>
       </c>
       <c r="C43" s="8">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" s="8">
         <v>4</v>
@@ -2087,21 +2093,18 @@
         <v>85</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C45" s="8">
         <v>4</v>
@@ -2110,18 +2113,21 @@
         <v>85</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C46" s="8">
         <v>4</v>
@@ -2130,24 +2136,24 @@
         <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -2156,32 +2162,32 @@
         <v>43</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -2190,18 +2196,18 @@
         <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -2210,18 +2216,18 @@
         <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
@@ -2230,18 +2236,18 @@
         <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
@@ -2256,15 +2262,12 @@
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2279,12 +2282,15 @@
         <v>15</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2293,35 +2299,38 @@
         <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C55" s="8">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C56" s="9">
         <v>5</v>
@@ -2330,52 +2339,49 @@
         <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="9">
         <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C58" s="9">
         <v>5</v>
       </c>
-      <c r="D58" t="s">
-        <v>125</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C59" s="9">
         <v>5</v>
@@ -2384,38 +2390,41 @@
         <v>125</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
       </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
@@ -2427,66 +2436,66 @@
         <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
       </c>
-      <c r="D62" t="s">
-        <v>85</v>
-      </c>
       <c r="E62" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
       </c>
+      <c r="D63" t="s">
+        <v>85</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C64" s="9">
+        <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C65" s="10">
         <v>6</v>
@@ -2498,12 +2507,12 @@
         <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="10">
         <v>6</v>
@@ -2515,12 +2524,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C67" s="10">
         <v>6</v>
@@ -2529,18 +2538,15 @@
         <v>138</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C68" s="10">
         <v>6</v>
@@ -2549,15 +2555,18 @@
         <v>138</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="10">
         <v>6</v>
@@ -2566,18 +2575,15 @@
         <v>138</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2586,15 +2592,18 @@
         <v>138</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2606,15 +2615,12 @@
         <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2623,35 +2629,35 @@
         <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="11">
-        <v>7</v>
-      </c>
-      <c r="D73" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C73" s="10">
+        <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C74" s="11">
         <v>7</v>
@@ -2663,15 +2669,15 @@
         <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C75" s="11">
         <v>7</v>
@@ -2686,12 +2692,12 @@
         <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" s="11">
         <v>7</v>
@@ -2703,15 +2709,15 @@
         <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="11">
         <v>7</v>
@@ -2720,18 +2726,18 @@
         <v>158</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C78" s="11">
         <v>7</v>
@@ -2740,18 +2746,18 @@
         <v>158</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2763,15 +2769,15 @@
         <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2786,12 +2792,12 @@
         <v>15</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2806,12 +2812,12 @@
         <v>15</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2826,15 +2832,12 @@
         <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2849,12 +2852,15 @@
         <v>15</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2869,12 +2875,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2889,12 +2895,12 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2909,29 +2915,32 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C87" s="11">
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C88" s="12">
         <v>8</v>
@@ -2948,59 +2957,56 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C89" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C89" s="12">
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C90" s="5">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5">
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>193</v>
@@ -3008,7 +3014,7 @@
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C92" s="5">
         <v>9</v>
@@ -3023,35 +3029,35 @@
         <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C93" s="5">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C94" s="5">
         <v>9</v>
@@ -3060,18 +3066,18 @@
         <v>190</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
@@ -3086,12 +3092,12 @@
         <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
@@ -3100,38 +3106,38 @@
         <v>190</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -3146,12 +3152,12 @@
         <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3163,41 +3169,41 @@
         <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -3206,15 +3212,12 @@
         <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
@@ -3229,12 +3232,15 @@
         <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
@@ -3246,39 +3252,42 @@
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C104" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C105" s="5">
         <v>10</v>
       </c>
+      <c r="D105" t="s">
+        <v>225</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>226</v>
       </c>
@@ -3286,19 +3295,16 @@
         <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C106" s="5">
         <v>10</v>
       </c>
-      <c r="D106" t="s">
-        <v>225</v>
-      </c>
       <c r="E106" s="1" t="s">
         <v>226</v>
       </c>
@@ -3306,29 +3312,32 @@
         <v>15</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C107" s="5">
         <v>10</v>
       </c>
+      <c r="D107" t="s">
+        <v>225</v>
+      </c>
       <c r="E107" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>234</v>
+      <c r="B108" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C108" s="5">
         <v>10</v>
@@ -3337,15 +3346,15 @@
         <v>226</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
-        <v>236</v>
+      <c r="B109" t="s">
+        <v>234</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
@@ -3357,19 +3366,16 @@
         <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
       </c>
-      <c r="D110" t="s">
-        <v>240</v>
-      </c>
       <c r="E110" s="1" t="s">
         <v>226</v>
       </c>
@@ -3377,16 +3383,19 @@
         <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
       </c>
+      <c r="D111" t="s">
+        <v>240</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>226</v>
       </c>
@@ -3394,12 +3403,12 @@
         <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
@@ -3411,12 +3420,12 @@
         <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
@@ -3425,15 +3434,15 @@
         <v>226</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
@@ -3442,15 +3451,15 @@
         <v>226</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
@@ -3462,12 +3471,12 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -3479,12 +3488,12 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3496,12 +3505,12 @@
         <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3510,9 +3519,26 @@
         <v>226</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="5">
+        <v>10</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="263">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -799,6 +799,12 @@
   </si>
   <si>
     <t>leetcode 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugly Number II </t>
+  </si>
+  <si>
+    <t>leetcode 264</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H119"/>
+  <dimension ref="B1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1400,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1406,15 +1412,15 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1434,7 +1440,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1446,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
@@ -1454,7 +1460,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1463,10 +1469,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>5</v>
@@ -1474,7 +1480,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1483,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
@@ -1494,7 +1500,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1506,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1523,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1543,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -1551,13 +1557,10 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1566,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1574,27 +1577,33 @@
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -1606,12 +1615,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -1623,12 +1632,12 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -1640,12 +1649,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1657,12 +1666,12 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1674,12 +1683,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1691,12 +1700,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1705,15 +1714,15 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1722,15 +1731,15 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1742,12 +1751,12 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1759,17 +1768,16 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
       </c>
-      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1777,12 +1785,12 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1800,7 +1808,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
@@ -1818,19 +1826,17 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>5</v>
@@ -1838,7 +1844,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7">
         <v>3</v>
@@ -1850,21 +1856,21 @@
         <v>54</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>54</v>
@@ -1873,21 +1879,18 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>54</v>
@@ -1896,18 +1899,21 @@
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>54</v>
@@ -1916,18 +1922,18 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
@@ -1936,18 +1942,18 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
@@ -1956,32 +1962,32 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
@@ -1996,12 +2002,12 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
@@ -2016,18 +2022,18 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>72</v>
@@ -2036,38 +2042,38 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" s="8">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>80</v>
       </c>
       <c r="C43" s="8">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -2076,35 +2082,35 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>84</v>
+      <c r="B44" t="s">
+        <v>80</v>
       </c>
       <c r="C44" s="8">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45" s="8">
         <v>4</v>
@@ -2113,21 +2119,18 @@
         <v>85</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C46" s="8">
         <v>4</v>
@@ -2136,18 +2139,21 @@
         <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
@@ -2156,24 +2162,24 @@
         <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -2182,32 +2188,32 @@
         <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -2216,18 +2222,18 @@
         <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
@@ -2236,18 +2242,18 @@
         <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
@@ -2256,18 +2262,18 @@
         <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2282,15 +2288,12 @@
         <v>15</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2305,12 +2308,15 @@
         <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2319,35 +2325,38 @@
         <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C56" s="8">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C57" s="9">
         <v>5</v>
@@ -2356,52 +2365,49 @@
         <v>114</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" s="9">
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C59" s="9">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
-        <v>125</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
@@ -2410,38 +2416,41 @@
         <v>125</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
       </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
@@ -2453,66 +2462,66 @@
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
       </c>
-      <c r="D63" t="s">
-        <v>85</v>
-      </c>
       <c r="E63" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
       </c>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C65" s="9">
+        <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C66" s="10">
         <v>6</v>
@@ -2524,12 +2533,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="10">
         <v>6</v>
@@ -2541,12 +2550,12 @@
         <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68" s="10">
         <v>6</v>
@@ -2555,18 +2564,15 @@
         <v>138</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" s="10">
         <v>6</v>
@@ -2575,15 +2581,18 @@
         <v>138</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2592,18 +2601,15 @@
         <v>138</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2612,15 +2618,18 @@
         <v>138</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2632,15 +2641,12 @@
         <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2649,35 +2655,35 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="11">
-        <v>7</v>
-      </c>
-      <c r="D74" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C74" s="10">
+        <v>6</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C75" s="11">
         <v>7</v>
@@ -2689,15 +2695,15 @@
         <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C76" s="11">
         <v>7</v>
@@ -2712,12 +2718,12 @@
         <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C77" s="11">
         <v>7</v>
@@ -2729,15 +2735,15 @@
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" s="11">
         <v>7</v>
@@ -2746,18 +2752,18 @@
         <v>158</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2766,18 +2772,18 @@
         <v>158</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2789,15 +2795,15 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2812,12 +2818,12 @@
         <v>15</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2832,12 +2838,12 @@
         <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2852,15 +2858,12 @@
         <v>15</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2875,12 +2878,15 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2895,12 +2901,12 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2915,12 +2921,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2935,29 +2941,32 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C88" s="11">
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C89" s="12">
         <v>8</v>
@@ -2974,59 +2983,56 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C90" s="12">
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C91" s="5">
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C92" s="5">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>193</v>
@@ -3034,7 +3040,7 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C93" s="5">
         <v>9</v>
@@ -3049,35 +3055,35 @@
         <v>15</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C94" s="5">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
@@ -3086,18 +3092,18 @@
         <v>190</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
@@ -3112,12 +3118,12 @@
         <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
@@ -3126,38 +3132,38 @@
         <v>190</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3172,12 +3178,12 @@
         <v>15</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
@@ -3189,41 +3195,41 @@
         <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>11</v>
@@ -3232,15 +3238,12 @@
         <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
@@ -3255,12 +3258,15 @@
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
@@ -3272,39 +3278,42 @@
         <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C105" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C106" s="5">
         <v>10</v>
       </c>
+      <c r="D106" t="s">
+        <v>225</v>
+      </c>
       <c r="E106" s="1" t="s">
         <v>226</v>
       </c>
@@ -3312,19 +3321,16 @@
         <v>15</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C107" s="5">
         <v>10</v>
       </c>
-      <c r="D107" t="s">
-        <v>225</v>
-      </c>
       <c r="E107" s="1" t="s">
         <v>226</v>
       </c>
@@ -3332,29 +3338,32 @@
         <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C108" s="5">
         <v>10</v>
       </c>
+      <c r="D108" t="s">
+        <v>225</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>234</v>
+      <c r="B109" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
@@ -3363,15 +3372,15 @@
         <v>226</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="3" t="s">
-        <v>236</v>
+      <c r="B110" t="s">
+        <v>234</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
@@ -3383,19 +3392,16 @@
         <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
       </c>
-      <c r="D111" t="s">
-        <v>240</v>
-      </c>
       <c r="E111" s="1" t="s">
         <v>226</v>
       </c>
@@ -3403,16 +3409,19 @@
         <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
       </c>
+      <c r="D112" t="s">
+        <v>240</v>
+      </c>
       <c r="E112" s="1" t="s">
         <v>226</v>
       </c>
@@ -3420,12 +3429,12 @@
         <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
@@ -3437,12 +3446,12 @@
         <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
@@ -3451,15 +3460,15 @@
         <v>226</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
@@ -3468,15 +3477,15 @@
         <v>226</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -3488,12 +3497,12 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3505,12 +3514,12 @@
         <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3522,12 +3531,12 @@
         <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3536,9 +3545,26 @@
         <v>226</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="5">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="265">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -805,6 +805,12 @@
   </si>
   <si>
     <t>leetcode 264</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>leetcode 309</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H120"/>
+  <dimension ref="B1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1426,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1432,15 +1438,15 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>5</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1460,7 +1466,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1472,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>5</v>
@@ -1480,7 +1486,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1489,10 +1495,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1509,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1532,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1549,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1569,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1577,13 +1583,10 @@
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1592,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1600,27 +1603,33 @@
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -1632,12 +1641,12 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -1649,12 +1658,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1666,12 +1675,12 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1683,12 +1692,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1700,12 +1709,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1717,12 +1726,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1731,15 +1740,15 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1748,15 +1757,15 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1768,12 +1777,12 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1785,17 +1794,16 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
       </c>
-      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1803,12 +1811,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
@@ -1824,9 +1832,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -1842,21 +1850,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>5</v>
@@ -1864,7 +1870,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7">
         <v>3</v>
@@ -1876,21 +1882,21 @@
         <v>54</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>54</v>
@@ -1899,21 +1905,18 @@
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>54</v>
@@ -1922,18 +1925,21 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
@@ -1942,18 +1948,18 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
@@ -1962,18 +1968,18 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
@@ -1982,32 +1988,32 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
@@ -2022,12 +2028,12 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
@@ -2042,18 +2048,18 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>72</v>
@@ -2062,38 +2068,38 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C43" s="8">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>80</v>
       </c>
       <c r="C44" s="8">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -2102,35 +2108,35 @@
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>84</v>
+      <c r="B45" t="s">
+        <v>80</v>
       </c>
       <c r="C45" s="8">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C46" s="8">
         <v>4</v>
@@ -2139,21 +2145,18 @@
         <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
@@ -2162,18 +2165,21 @@
         <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
@@ -2182,24 +2188,24 @@
         <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -2208,32 +2214,32 @@
         <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
@@ -2242,18 +2248,18 @@
         <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
@@ -2262,18 +2268,18 @@
         <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2282,18 +2288,18 @@
         <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2308,15 +2314,12 @@
         <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2331,12 +2334,15 @@
         <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="8">
         <v>4</v>
@@ -2345,35 +2351,38 @@
         <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C57" s="8">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C58" s="9">
         <v>5</v>
@@ -2382,52 +2391,49 @@
         <v>114</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="9">
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
       </c>
-      <c r="D60" t="s">
-        <v>125</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
@@ -2436,38 +2442,41 @@
         <v>125</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
       </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
@@ -2479,66 +2488,66 @@
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
-        <v>85</v>
-      </c>
       <c r="E64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
       </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C66" s="9">
+        <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C67" s="10">
         <v>6</v>
@@ -2550,12 +2559,12 @@
         <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" s="10">
         <v>6</v>
@@ -2567,12 +2576,12 @@
         <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C69" s="10">
         <v>6</v>
@@ -2581,18 +2590,15 @@
         <v>138</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2601,15 +2607,18 @@
         <v>138</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2618,18 +2627,15 @@
         <v>138</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2638,15 +2644,18 @@
         <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2658,15 +2667,12 @@
         <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -2675,35 +2681,35 @@
         <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="11">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C75" s="10">
+        <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C76" s="11">
         <v>7</v>
@@ -2715,15 +2721,15 @@
         <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C77" s="11">
         <v>7</v>
@@ -2738,12 +2744,12 @@
         <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78" s="11">
         <v>7</v>
@@ -2755,15 +2761,15 @@
         <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2772,18 +2778,18 @@
         <v>158</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2792,18 +2798,18 @@
         <v>158</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2815,15 +2821,15 @@
         <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2838,12 +2844,12 @@
         <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2858,12 +2864,12 @@
         <v>15</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2878,15 +2884,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2901,12 +2904,15 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2921,12 +2927,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2941,12 +2947,12 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C88" s="11">
         <v>7</v>
@@ -2961,29 +2967,32 @@
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C89" s="11">
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C90" s="12">
         <v>8</v>
@@ -3000,59 +3009,56 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C91" s="12">
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C92" s="5">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C93" s="5">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>193</v>
@@ -3060,7 +3066,7 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" s="5">
         <v>9</v>
@@ -3075,35 +3081,35 @@
         <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
@@ -3112,18 +3118,18 @@
         <v>190</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
@@ -3138,12 +3144,12 @@
         <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -3152,38 +3158,38 @@
         <v>190</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
@@ -3198,12 +3204,12 @@
         <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
@@ -3215,41 +3221,41 @@
         <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>11</v>
@@ -3258,15 +3264,12 @@
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
@@ -3281,12 +3284,15 @@
         <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
@@ -3298,39 +3304,42 @@
         <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C106" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C107" s="5">
         <v>10</v>
       </c>
+      <c r="D107" t="s">
+        <v>225</v>
+      </c>
       <c r="E107" s="1" t="s">
         <v>226</v>
       </c>
@@ -3338,19 +3347,16 @@
         <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C108" s="5">
         <v>10</v>
       </c>
-      <c r="D108" t="s">
-        <v>225</v>
-      </c>
       <c r="E108" s="1" t="s">
         <v>226</v>
       </c>
@@ -3358,29 +3364,32 @@
         <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
       </c>
+      <c r="D109" t="s">
+        <v>225</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>234</v>
+      <c r="B110" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
@@ -3389,15 +3398,15 @@
         <v>226</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
-        <v>236</v>
+      <c r="B111" t="s">
+        <v>234</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
@@ -3409,19 +3418,16 @@
         <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
       </c>
-      <c r="D112" t="s">
-        <v>240</v>
-      </c>
       <c r="E112" s="1" t="s">
         <v>226</v>
       </c>
@@ -3429,16 +3435,19 @@
         <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
       </c>
+      <c r="D113" t="s">
+        <v>240</v>
+      </c>
       <c r="E113" s="1" t="s">
         <v>226</v>
       </c>
@@ -3446,12 +3455,12 @@
         <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
@@ -3463,12 +3472,12 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
@@ -3477,15 +3486,15 @@
         <v>226</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -3494,15 +3503,15 @@
         <v>226</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3514,12 +3523,12 @@
         <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3531,12 +3540,12 @@
         <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3548,12 +3557,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -3562,9 +3571,26 @@
         <v>226</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="5">
+        <v>10</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="267">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -811,6 +811,12 @@
   </si>
   <si>
     <t>leetcode 309</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>leetcode 188</t>
   </si>
 </sst>
 </file>
@@ -1243,25 +1249,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H121"/>
+  <dimension ref="B1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>257</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>259</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>261</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>263</v>
       </c>
@@ -1444,9 +1450,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1458,15 +1464,15 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1484,9 +1490,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1498,15 +1504,15 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1515,18 +1521,18 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1535,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
@@ -1544,9 +1550,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1558,15 +1564,15 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1575,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1584,9 +1590,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1595,7 +1601,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1603,13 +1609,10 @@
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1618,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1626,27 +1629,33 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -1658,12 +1667,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1675,12 +1684,12 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1692,12 +1701,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1709,12 +1718,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1726,12 +1735,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1743,12 +1752,12 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1757,15 +1766,15 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1774,15 +1783,15 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1794,12 +1803,12 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1811,17 +1820,16 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1829,12 +1837,12 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -1850,9 +1858,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -1868,29 +1876,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -1902,21 +1908,21 @@
         <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>54</v>
@@ -1925,21 +1931,18 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
@@ -1948,18 +1951,21 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
@@ -1968,18 +1974,18 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
@@ -1988,18 +1994,18 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>54</v>
@@ -2008,32 +2014,32 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
@@ -2048,12 +2054,12 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -2068,18 +2074,18 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="7">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>72</v>
@@ -2088,38 +2094,38 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="8">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>80</v>
       </c>
       <c r="C45" s="8">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -2128,35 +2134,35 @@
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>80</v>
       </c>
       <c r="C46" s="8">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
@@ -2165,21 +2171,18 @@
         <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
@@ -2188,18 +2191,21 @@
         <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -2208,24 +2214,24 @@
         <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -2234,32 +2240,32 @@
         <v>43</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
@@ -2268,18 +2274,18 @@
         <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2288,18 +2294,18 @@
         <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2308,18 +2314,18 @@
         <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2334,15 +2340,12 @@
         <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C56" s="8">
         <v>4</v>
@@ -2357,12 +2360,15 @@
         <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
@@ -2371,35 +2377,38 @@
         <v>85</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="8">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C58" s="9">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C59" s="9">
         <v>5</v>
@@ -2408,52 +2417,49 @@
         <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
       </c>
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
@@ -2462,38 +2468,41 @@
         <v>125</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
       </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
@@ -2505,66 +2514,66 @@
         <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
-        <v>85</v>
-      </c>
       <c r="E65" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" s="9">
         <v>5</v>
       </c>
+      <c r="D66" t="s">
+        <v>85</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="9">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C67" s="10">
-        <v>6</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C68" s="10">
         <v>6</v>
@@ -2576,12 +2585,12 @@
         <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" s="10">
         <v>6</v>
@@ -2593,12 +2602,12 @@
         <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2607,18 +2616,15 @@
         <v>138</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2627,15 +2633,18 @@
         <v>138</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2644,18 +2653,15 @@
         <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2664,15 +2670,18 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -2684,15 +2693,12 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" s="10">
         <v>6</v>
@@ -2701,35 +2707,35 @@
         <v>138</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="11">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C76" s="10">
+        <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="11">
         <v>7</v>
@@ -2741,15 +2747,15 @@
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C78" s="11">
         <v>7</v>
@@ -2764,12 +2770,12 @@
         <v>15</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2781,15 +2787,15 @@
         <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2798,18 +2804,18 @@
         <v>158</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2818,18 +2824,18 @@
         <v>158</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2841,15 +2847,15 @@
         <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2864,12 +2870,12 @@
         <v>15</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2884,12 +2890,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2904,15 +2910,12 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2927,12 +2930,15 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2947,12 +2953,12 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C88" s="11">
         <v>7</v>
@@ -2967,12 +2973,12 @@
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C89" s="11">
         <v>7</v>
@@ -2987,29 +2993,32 @@
         <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="11">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>158</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C90" s="12">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>187</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C91" s="12">
         <v>8</v>
@@ -3024,69 +3033,66 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="12">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C92" s="5">
-        <v>9</v>
-      </c>
-      <c r="D92" t="s">
-        <v>194</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="C93" s="5">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C94" s="5">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
@@ -3101,35 +3107,35 @@
         <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
@@ -3138,18 +3144,18 @@
         <v>190</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -3164,12 +3170,12 @@
         <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3178,38 +3184,38 @@
         <v>190</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
@@ -3224,12 +3230,12 @@
         <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
@@ -3241,41 +3247,41 @@
         <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -3284,15 +3290,12 @@
         <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
@@ -3307,12 +3310,15 @@
         <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C106" s="5">
         <v>9</v>
@@ -3324,39 +3330,42 @@
         <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="5">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>209</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="3" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C107" s="5">
-        <v>10</v>
-      </c>
-      <c r="D107" t="s">
-        <v>225</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C108" s="5">
         <v>10</v>
       </c>
+      <c r="D108" t="s">
+        <v>225</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>226</v>
       </c>
@@ -3364,19 +3373,16 @@
         <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
       </c>
-      <c r="D109" t="s">
-        <v>225</v>
-      </c>
       <c r="E109" s="1" t="s">
         <v>226</v>
       </c>
@@ -3384,29 +3390,32 @@
         <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
       </c>
+      <c r="D110" t="s">
+        <v>225</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
@@ -3415,15 +3424,15 @@
         <v>226</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>234</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
@@ -3435,19 +3444,16 @@
         <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
       </c>
-      <c r="D113" t="s">
-        <v>240</v>
-      </c>
       <c r="E113" s="1" t="s">
         <v>226</v>
       </c>
@@ -3455,16 +3461,19 @@
         <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
       </c>
+      <c r="D114" t="s">
+        <v>240</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>226</v>
       </c>
@@ -3472,12 +3481,12 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
@@ -3489,12 +3498,12 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -3503,15 +3512,15 @@
         <v>226</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3520,15 +3529,15 @@
         <v>226</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3540,12 +3549,12 @@
         <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3557,12 +3566,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -3574,12 +3583,12 @@
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C121" s="5">
         <v>10</v>
@@ -3588,9 +3597,26 @@
         <v>226</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="5">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="269">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -817,6 +817,12 @@
   </si>
   <si>
     <t>leetcode 188</t>
+  </si>
+  <si>
+    <t>Maximum Subarray III</t>
+  </si>
+  <si>
+    <t>lintcode 43</t>
   </si>
 </sst>
 </file>
@@ -1249,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H122"/>
+  <dimension ref="B1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>266</v>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1484,15 +1490,15 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1512,7 +1518,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1524,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
@@ -1532,7 +1538,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1541,10 +1547,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
@@ -1552,7 +1558,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1561,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -1572,7 +1578,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1584,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>5</v>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1601,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1621,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1629,13 +1635,10 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1644,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1652,27 +1655,33 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1684,12 +1693,12 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1701,12 +1710,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1718,12 +1727,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1735,12 +1744,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1752,12 +1761,12 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1769,12 +1778,12 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1783,15 +1792,15 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1800,15 +1809,15 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1820,12 +1829,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
@@ -1837,17 +1846,16 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
       </c>
-      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1855,12 +1863,12 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -1878,7 +1886,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
@@ -1896,19 +1904,17 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="7">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>5</v>
@@ -1916,7 +1922,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -1928,21 +1934,21 @@
         <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
@@ -1951,21 +1957,18 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
@@ -1974,18 +1977,21 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
@@ -1994,18 +2000,18 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>54</v>
@@ -2014,18 +2020,18 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>54</v>
@@ -2034,32 +2040,32 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -2074,12 +2080,12 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="7">
         <v>3</v>
@@ -2094,18 +2100,18 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="7">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>72</v>
@@ -2114,38 +2120,38 @@
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="8">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>80</v>
       </c>
       <c r="C46" s="8">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -2154,35 +2160,35 @@
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>84</v>
+      <c r="B47" t="s">
+        <v>80</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
@@ -2191,21 +2197,18 @@
         <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -2214,18 +2217,21 @@
         <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -2234,24 +2240,24 @@
         <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -2260,32 +2266,32 @@
         <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2294,18 +2300,18 @@
         <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2314,18 +2320,18 @@
         <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2334,18 +2340,18 @@
         <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" s="8">
         <v>4</v>
@@ -2360,15 +2366,12 @@
         <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
@@ -2383,12 +2386,15 @@
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" s="8">
         <v>4</v>
@@ -2397,35 +2403,38 @@
         <v>85</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C59" s="8">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
@@ -2434,52 +2443,49 @@
         <v>114</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
       </c>
-      <c r="D62" t="s">
-        <v>125</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
@@ -2488,38 +2494,41 @@
         <v>125</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
       </c>
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
@@ -2531,66 +2540,66 @@
         <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="9">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
-        <v>85</v>
-      </c>
       <c r="E66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" s="9">
         <v>5</v>
       </c>
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C68" s="9">
+        <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C69" s="10">
         <v>6</v>
@@ -2602,12 +2611,12 @@
         <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2619,12 +2628,12 @@
         <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2633,18 +2642,15 @@
         <v>138</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2653,15 +2659,18 @@
         <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2670,18 +2679,15 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -2690,15 +2696,18 @@
         <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C75" s="10">
         <v>6</v>
@@ -2710,15 +2719,12 @@
         <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C76" s="10">
         <v>6</v>
@@ -2727,35 +2733,35 @@
         <v>138</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="11">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C77" s="10">
+        <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" s="11">
         <v>7</v>
@@ -2767,15 +2773,15 @@
         <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2790,12 +2796,12 @@
         <v>15</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2807,15 +2813,15 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2824,18 +2830,18 @@
         <v>158</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2844,18 +2850,18 @@
         <v>158</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2867,15 +2873,15 @@
         <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2890,12 +2896,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2910,12 +2916,12 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2930,15 +2936,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2953,12 +2956,15 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C88" s="11">
         <v>7</v>
@@ -2973,12 +2979,12 @@
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C89" s="11">
         <v>7</v>
@@ -2993,12 +2999,12 @@
         <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C90" s="11">
         <v>7</v>
@@ -3013,29 +3019,32 @@
         <v>15</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C91" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C91" s="11">
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C92" s="12">
         <v>8</v>
@@ -3052,59 +3061,56 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C93" s="12">
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C94" s="5">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>193</v>
@@ -3112,7 +3118,7 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
@@ -3127,35 +3133,35 @@
         <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -3164,18 +3170,18 @@
         <v>190</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3190,12 +3196,12 @@
         <v>15</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
@@ -3204,38 +3210,38 @@
         <v>190</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
@@ -3250,12 +3256,12 @@
         <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
@@ -3267,41 +3273,41 @@
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
@@ -3310,15 +3316,12 @@
         <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C106" s="5">
         <v>9</v>
@@ -3333,12 +3336,15 @@
         <v>15</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C107" s="5">
         <v>9</v>
@@ -3350,39 +3356,42 @@
         <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C108" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
       </c>
+      <c r="D109" t="s">
+        <v>225</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>226</v>
       </c>
@@ -3390,19 +3399,16 @@
         <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
       </c>
-      <c r="D110" t="s">
-        <v>225</v>
-      </c>
       <c r="E110" s="1" t="s">
         <v>226</v>
       </c>
@@ -3410,29 +3416,32 @@
         <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
       </c>
+      <c r="D111" t="s">
+        <v>225</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>234</v>
+      <c r="B112" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
@@ -3441,15 +3450,15 @@
         <v>226</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="3" t="s">
-        <v>236</v>
+      <c r="B113" t="s">
+        <v>234</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
@@ -3461,19 +3470,16 @@
         <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
       </c>
-      <c r="D114" t="s">
-        <v>240</v>
-      </c>
       <c r="E114" s="1" t="s">
         <v>226</v>
       </c>
@@ -3481,16 +3487,19 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
       </c>
+      <c r="D115" t="s">
+        <v>240</v>
+      </c>
       <c r="E115" s="1" t="s">
         <v>226</v>
       </c>
@@ -3498,12 +3507,12 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -3515,12 +3524,12 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3529,15 +3538,15 @@
         <v>226</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3546,15 +3555,15 @@
         <v>226</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3566,12 +3575,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -3583,12 +3592,12 @@
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C121" s="5">
         <v>10</v>
@@ -3600,12 +3609,12 @@
         <v>15</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C122" s="5">
         <v>10</v>
@@ -3614,9 +3623,26 @@
         <v>226</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="5">
+        <v>10</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="271">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -823,6 +823,12 @@
   </si>
   <si>
     <t>lintcode 43</t>
+  </si>
+  <si>
+    <t>lintcode 125</t>
+  </si>
+  <si>
+    <t>Backpack II</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H123"/>
+  <dimension ref="B1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1504,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1510,15 +1516,15 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1550,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
@@ -1558,7 +1564,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1567,10 +1573,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>5</v>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1587,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1610,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>5</v>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1627,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1638,7 +1644,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1647,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1655,13 +1661,10 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1670,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1678,27 +1681,33 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1710,12 +1719,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1727,12 +1736,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1744,12 +1753,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1761,12 +1770,12 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1778,12 +1787,12 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1795,12 +1804,12 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1809,15 +1818,15 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1826,15 +1835,15 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
@@ -1846,12 +1855,12 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -1863,17 +1872,16 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
       </c>
-      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1881,12 +1889,12 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
@@ -1904,7 +1912,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="6">
         <v>2</v>
@@ -1922,19 +1930,17 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="7">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>5</v>
@@ -1942,7 +1948,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -1954,21 +1960,21 @@
         <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
@@ -1977,21 +1983,18 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
@@ -2000,18 +2003,21 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>54</v>
@@ -2020,18 +2026,18 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>54</v>
@@ -2040,18 +2046,18 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>54</v>
@@ -2060,32 +2066,32 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="7">
         <v>3</v>
@@ -2100,12 +2106,12 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="7">
         <v>3</v>
@@ -2120,18 +2126,18 @@
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="7">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>72</v>
@@ -2140,38 +2146,38 @@
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="8">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>80</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -2180,35 +2186,35 @@
         <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
-        <v>84</v>
+      <c r="B48" t="s">
+        <v>80</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -2217,21 +2223,18 @@
         <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -2240,18 +2243,21 @@
         <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
@@ -2260,24 +2266,24 @@
         <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -2286,32 +2292,32 @@
         <v>43</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2320,18 +2326,18 @@
         <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2340,18 +2346,18 @@
         <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="8">
         <v>4</v>
@@ -2360,18 +2366,18 @@
         <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
@@ -2386,15 +2392,12 @@
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C58" s="8">
         <v>4</v>
@@ -2409,12 +2412,15 @@
         <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59" s="8">
         <v>4</v>
@@ -2423,35 +2429,38 @@
         <v>85</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C60" s="8">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
@@ -2460,52 +2469,49 @@
         <v>114</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
       </c>
-      <c r="D63" t="s">
-        <v>125</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
@@ -2514,38 +2520,41 @@
         <v>125</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
       </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C66" s="9">
         <v>5</v>
@@ -2557,66 +2566,66 @@
         <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="9">
         <v>5</v>
       </c>
-      <c r="D67" t="s">
-        <v>85</v>
-      </c>
       <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="9">
         <v>5</v>
       </c>
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C69" s="9">
+        <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2628,12 +2637,12 @@
         <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2645,12 +2654,12 @@
         <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2659,18 +2668,15 @@
         <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2679,15 +2685,18 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -2696,18 +2705,15 @@
         <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" s="10">
         <v>6</v>
@@ -2716,15 +2722,18 @@
         <v>138</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76" s="10">
         <v>6</v>
@@ -2736,15 +2745,12 @@
         <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="10">
         <v>6</v>
@@ -2753,35 +2759,35 @@
         <v>138</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="11">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C78" s="10">
+        <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2793,15 +2799,15 @@
         <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2816,12 +2822,12 @@
         <v>15</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2833,15 +2839,15 @@
         <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2850,18 +2856,18 @@
         <v>158</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2870,18 +2876,18 @@
         <v>158</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2893,15 +2899,15 @@
         <v>11</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2916,12 +2922,12 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2936,12 +2942,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2956,15 +2962,12 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C88" s="11">
         <v>7</v>
@@ -2979,12 +2982,15 @@
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C89" s="11">
         <v>7</v>
@@ -2999,12 +3005,12 @@
         <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" s="11">
         <v>7</v>
@@ -3019,12 +3025,12 @@
         <v>15</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91" s="11">
         <v>7</v>
@@ -3039,29 +3045,32 @@
         <v>15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C92" s="11">
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C93" s="12">
         <v>8</v>
@@ -3078,59 +3087,56 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C94" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C94" s="12">
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>193</v>
@@ -3138,7 +3144,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
@@ -3153,35 +3159,35 @@
         <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3190,18 +3196,18 @@
         <v>190</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
@@ -3216,12 +3222,12 @@
         <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
@@ -3230,38 +3236,38 @@
         <v>190</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
@@ -3276,12 +3282,12 @@
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
@@ -3293,41 +3299,41 @@
         <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C106" s="5">
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
@@ -3336,15 +3342,12 @@
         <v>15</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C107" s="5">
         <v>9</v>
@@ -3359,12 +3362,15 @@
         <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C108" s="5">
         <v>9</v>
@@ -3376,39 +3382,42 @@
         <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C109" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
       </c>
+      <c r="D110" t="s">
+        <v>225</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>226</v>
       </c>
@@ -3416,19 +3425,16 @@
         <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
       </c>
-      <c r="D111" t="s">
-        <v>225</v>
-      </c>
       <c r="E111" s="1" t="s">
         <v>226</v>
       </c>
@@ -3436,29 +3442,32 @@
         <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
       </c>
+      <c r="D112" t="s">
+        <v>225</v>
+      </c>
       <c r="E112" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>234</v>
+      <c r="B113" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
@@ -3467,15 +3476,15 @@
         <v>226</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B114" s="3" t="s">
-        <v>236</v>
+      <c r="B114" t="s">
+        <v>234</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
@@ -3487,19 +3496,16 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
       </c>
-      <c r="D115" t="s">
-        <v>240</v>
-      </c>
       <c r="E115" s="1" t="s">
         <v>226</v>
       </c>
@@ -3507,16 +3513,19 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
       </c>
+      <c r="D116" t="s">
+        <v>240</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>226</v>
       </c>
@@ -3524,12 +3533,12 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3541,12 +3550,12 @@
         <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3555,15 +3564,15 @@
         <v>226</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3572,15 +3581,15 @@
         <v>226</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -3592,12 +3601,12 @@
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C121" s="5">
         <v>10</v>
@@ -3609,12 +3618,12 @@
         <v>15</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C122" s="5">
         <v>10</v>
@@ -3626,12 +3635,12 @@
         <v>15</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C123" s="5">
         <v>10</v>
@@ -3640,9 +3649,26 @@
         <v>226</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="5">
+        <v>10</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="273">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -829,6 +829,12 @@
   </si>
   <si>
     <t>Backpack II</t>
+  </si>
+  <si>
+    <t>Coins in a Line II</t>
+  </si>
+  <si>
+    <t>lintcode 395</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H124"/>
+  <dimension ref="B1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1524,7 +1530,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1536,15 +1542,15 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1576,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>5</v>
@@ -1584,7 +1590,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1593,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>5</v>
@@ -1604,7 +1610,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1613,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
@@ -1624,7 +1630,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1636,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>5</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1653,7 +1659,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1673,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1681,13 +1687,10 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -1696,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
@@ -1704,27 +1707,33 @@
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1736,12 +1745,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1753,12 +1762,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1770,12 +1779,12 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1787,12 +1796,12 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1804,12 +1813,12 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1821,12 +1830,12 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1835,15 +1844,15 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
@@ -1852,15 +1861,15 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -1872,12 +1881,12 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -1889,17 +1898,16 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
       </c>
-      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1907,12 +1915,12 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="6">
         <v>2</v>
@@ -1930,7 +1938,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
@@ -1948,19 +1956,17 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="7">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>5</v>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
@@ -1980,21 +1986,21 @@
         <v>54</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
@@ -2003,21 +2009,18 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>54</v>
@@ -2026,18 +2029,21 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>54</v>
@@ -2046,18 +2052,18 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>54</v>
@@ -2066,18 +2072,18 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>54</v>
@@ -2086,32 +2092,32 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="7">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7">
         <v>3</v>
@@ -2126,12 +2132,12 @@
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="7">
         <v>3</v>
@@ -2146,18 +2152,18 @@
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="7">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>72</v>
@@ -2166,38 +2172,38 @@
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C47" s="8">
-        <v>4</v>
-      </c>
-      <c r="D47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>80</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -2206,35 +2212,35 @@
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
-        <v>84</v>
+      <c r="B49" t="s">
+        <v>80</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -2243,21 +2249,18 @@
         <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
@@ -2266,18 +2269,21 @@
         <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
@@ -2286,24 +2292,24 @@
         <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -2312,32 +2318,32 @@
         <v>43</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2346,18 +2352,18 @@
         <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" s="8">
         <v>4</v>
@@ -2366,18 +2372,18 @@
         <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
@@ -2386,18 +2392,18 @@
         <v>85</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="8">
         <v>4</v>
@@ -2412,15 +2418,12 @@
         <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" s="8">
         <v>4</v>
@@ -2435,12 +2438,15 @@
         <v>15</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C60" s="8">
         <v>4</v>
@@ -2449,35 +2455,38 @@
         <v>85</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C61" s="8">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
@@ -2486,52 +2495,49 @@
         <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
-        <v>125</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
@@ -2540,38 +2546,41 @@
         <v>125</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C66" s="9">
         <v>5</v>
       </c>
+      <c r="D66" t="s">
+        <v>125</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C67" s="9">
         <v>5</v>
@@ -2583,66 +2592,66 @@
         <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="9">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
-        <v>85</v>
-      </c>
       <c r="E68" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" s="9">
         <v>5</v>
       </c>
+      <c r="D69" t="s">
+        <v>85</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C70" s="9">
+        <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2654,12 +2663,12 @@
         <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2671,12 +2680,12 @@
         <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2685,18 +2694,15 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -2705,15 +2711,18 @@
         <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C75" s="10">
         <v>6</v>
@@ -2722,18 +2731,15 @@
         <v>138</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" s="10">
         <v>6</v>
@@ -2742,15 +2748,18 @@
         <v>138</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C77" s="10">
         <v>6</v>
@@ -2762,15 +2771,12 @@
         <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C78" s="10">
         <v>6</v>
@@ -2779,35 +2785,35 @@
         <v>138</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="11">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C79" s="10">
+        <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2819,15 +2825,15 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2842,12 +2848,12 @@
         <v>15</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2859,15 +2865,15 @@
         <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2876,18 +2882,18 @@
         <v>158</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2896,18 +2902,18 @@
         <v>158</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2919,15 +2925,15 @@
         <v>11</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2942,12 +2948,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2962,12 +2968,12 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C88" s="11">
         <v>7</v>
@@ -2982,15 +2988,12 @@
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C89" s="11">
         <v>7</v>
@@ -3005,12 +3008,15 @@
         <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90" s="11">
         <v>7</v>
@@ -3025,12 +3031,12 @@
         <v>15</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C91" s="11">
         <v>7</v>
@@ -3045,12 +3051,12 @@
         <v>15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92" s="11">
         <v>7</v>
@@ -3065,29 +3071,32 @@
         <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C93" s="11">
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C94" s="12">
         <v>8</v>
@@ -3104,59 +3113,56 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C95" s="12">
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>193</v>
@@ -3164,7 +3170,7 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -3179,35 +3185,35 @@
         <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
@@ -3216,18 +3222,18 @@
         <v>190</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
@@ -3242,12 +3248,12 @@
         <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
@@ -3256,38 +3262,38 @@
         <v>190</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
@@ -3302,12 +3308,12 @@
         <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
@@ -3319,41 +3325,41 @@
         <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C106" s="5">
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C107" s="5">
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>11</v>
@@ -3362,15 +3368,12 @@
         <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C108" s="5">
         <v>9</v>
@@ -3385,12 +3388,15 @@
         <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C109" s="5">
         <v>9</v>
@@ -3402,39 +3408,42 @@
         <v>11</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C110" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
       </c>
+      <c r="D111" t="s">
+        <v>225</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>226</v>
       </c>
@@ -3442,19 +3451,16 @@
         <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
       </c>
-      <c r="D112" t="s">
-        <v>225</v>
-      </c>
       <c r="E112" s="1" t="s">
         <v>226</v>
       </c>
@@ -3462,29 +3468,32 @@
         <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
       </c>
+      <c r="D113" t="s">
+        <v>225</v>
+      </c>
       <c r="E113" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>234</v>
+      <c r="B114" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
@@ -3493,15 +3502,15 @@
         <v>226</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B115" s="3" t="s">
-        <v>236</v>
+      <c r="B115" t="s">
+        <v>234</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
@@ -3513,19 +3522,16 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
       </c>
-      <c r="D116" t="s">
-        <v>240</v>
-      </c>
       <c r="E116" s="1" t="s">
         <v>226</v>
       </c>
@@ -3533,16 +3539,19 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
       </c>
+      <c r="D117" t="s">
+        <v>240</v>
+      </c>
       <c r="E117" s="1" t="s">
         <v>226</v>
       </c>
@@ -3550,12 +3559,12 @@
         <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3567,12 +3576,12 @@
         <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3581,15 +3590,15 @@
         <v>226</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -3598,15 +3607,15 @@
         <v>226</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C121" s="5">
         <v>10</v>
@@ -3618,12 +3627,12 @@
         <v>15</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C122" s="5">
         <v>10</v>
@@ -3635,12 +3644,12 @@
         <v>15</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C123" s="5">
         <v>10</v>
@@ -3652,12 +3661,12 @@
         <v>15</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C124" s="5">
         <v>10</v>
@@ -3666,9 +3675,26 @@
         <v>226</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="5">
+        <v>10</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="266">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>leetcode 309</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H121"/>
+  <dimension ref="B1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1449,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1458,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1486,7 +1489,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1498,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1515,10 +1518,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1535,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>5</v>
@@ -1566,7 +1569,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1575,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1595,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1603,13 +1606,10 @@
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1626,27 +1626,33 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -1658,12 +1664,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1675,12 +1681,12 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1692,12 +1698,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1709,12 +1715,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1726,12 +1732,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1743,12 +1749,12 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1757,15 +1763,15 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1774,15 +1780,15 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1794,12 +1800,12 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1811,17 +1817,16 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1829,12 +1834,12 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -1852,7 +1857,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -1870,19 +1875,17 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>5</v>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -1902,21 +1905,21 @@
         <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>54</v>
@@ -1925,21 +1928,18 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
@@ -1948,18 +1948,21 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
@@ -1968,18 +1971,18 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
@@ -1988,18 +1991,18 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>54</v>
@@ -2008,32 +2011,32 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
@@ -2048,12 +2051,12 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -2068,18 +2071,18 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="7">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>72</v>
@@ -2088,38 +2091,38 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="8">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>80</v>
       </c>
       <c r="C45" s="8">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -2128,35 +2131,35 @@
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>84</v>
+      <c r="B46" t="s">
+        <v>80</v>
       </c>
       <c r="C46" s="8">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
@@ -2165,21 +2168,18 @@
         <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
@@ -2188,18 +2188,21 @@
         <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -2208,24 +2211,24 @@
         <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -2234,32 +2237,32 @@
         <v>43</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
@@ -2268,18 +2271,18 @@
         <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2288,18 +2291,18 @@
         <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2308,18 +2311,18 @@
         <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2334,15 +2337,12 @@
         <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C56" s="8">
         <v>4</v>
@@ -2357,12 +2357,15 @@
         <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
@@ -2371,35 +2374,38 @@
         <v>85</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C58" s="8">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C59" s="9">
         <v>5</v>
@@ -2408,52 +2414,49 @@
         <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
       </c>
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
@@ -2462,38 +2465,41 @@
         <v>125</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
       </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
@@ -2505,66 +2511,66 @@
         <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
-        <v>85</v>
-      </c>
       <c r="E65" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" s="9">
         <v>5</v>
       </c>
+      <c r="D66" t="s">
+        <v>85</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C67" s="9">
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C68" s="10">
         <v>6</v>
@@ -2576,12 +2582,12 @@
         <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" s="10">
         <v>6</v>
@@ -2593,12 +2599,12 @@
         <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2607,18 +2613,15 @@
         <v>138</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2627,15 +2630,18 @@
         <v>138</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2644,18 +2650,15 @@
         <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2664,15 +2667,18 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -2684,15 +2690,12 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" s="10">
         <v>6</v>
@@ -2701,35 +2704,35 @@
         <v>138</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="11">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C76" s="10">
+        <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="11">
         <v>7</v>
@@ -2741,15 +2744,15 @@
         <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C78" s="11">
         <v>7</v>
@@ -2764,12 +2767,12 @@
         <v>15</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2781,15 +2784,15 @@
         <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2798,18 +2801,18 @@
         <v>158</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2818,18 +2821,18 @@
         <v>158</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2841,15 +2844,15 @@
         <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2864,12 +2867,12 @@
         <v>15</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2884,12 +2887,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2904,15 +2907,12 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2927,12 +2927,15 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2947,12 +2950,12 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C88" s="11">
         <v>7</v>
@@ -2967,12 +2970,12 @@
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C89" s="11">
         <v>7</v>
@@ -2987,29 +2990,32 @@
         <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C90" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C90" s="11">
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C91" s="12">
         <v>8</v>
@@ -3026,59 +3032,56 @@
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C92" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C92" s="12">
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C93" s="5">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C94" s="5">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>193</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
@@ -3101,35 +3104,35 @@
         <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
@@ -3138,18 +3141,18 @@
         <v>190</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -3164,12 +3167,12 @@
         <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3178,38 +3181,38 @@
         <v>190</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
@@ -3224,12 +3227,12 @@
         <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
@@ -3241,41 +3244,41 @@
         <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -3284,15 +3287,12 @@
         <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
@@ -3307,12 +3307,15 @@
         <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C106" s="5">
         <v>9</v>
@@ -3324,39 +3327,42 @@
         <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C107" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C108" s="5">
         <v>10</v>
       </c>
+      <c r="D108" t="s">
+        <v>225</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>226</v>
       </c>
@@ -3364,19 +3370,16 @@
         <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
       </c>
-      <c r="D109" t="s">
-        <v>225</v>
-      </c>
       <c r="E109" s="1" t="s">
         <v>226</v>
       </c>
@@ -3384,29 +3387,32 @@
         <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
       </c>
+      <c r="D110" t="s">
+        <v>225</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>234</v>
+      <c r="B111" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
@@ -3415,15 +3421,15 @@
         <v>226</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
-        <v>236</v>
+      <c r="B112" t="s">
+        <v>234</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
@@ -3435,19 +3441,16 @@
         <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
       </c>
-      <c r="D113" t="s">
-        <v>240</v>
-      </c>
       <c r="E113" s="1" t="s">
         <v>226</v>
       </c>
@@ -3455,16 +3458,19 @@
         <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
       </c>
+      <c r="D114" t="s">
+        <v>240</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>226</v>
       </c>
@@ -3472,12 +3478,12 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
@@ -3489,12 +3495,12 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -3503,15 +3509,15 @@
         <v>226</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3520,15 +3526,15 @@
         <v>226</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3540,12 +3546,12 @@
         <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3557,12 +3563,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -3574,12 +3580,12 @@
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C121" s="5">
         <v>10</v>
@@ -3588,9 +3594,26 @@
         <v>226</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="5">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="267">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>Matrix Chain Multiplication</t>
+  </si>
+  <si>
+    <t>Egg Dropping Puzzle</t>
   </si>
 </sst>
 </file>
@@ -1246,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H122"/>
+  <dimension ref="B1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,7 +1452,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1481,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>5</v>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1521,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1538,10 +1541,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
@@ -1549,7 +1552,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1581,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>5</v>
@@ -1589,7 +1592,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1598,7 +1601,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1618,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1626,13 +1629,10 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1649,27 +1649,33 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1681,12 +1687,12 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1698,12 +1704,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1715,12 +1721,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1732,12 +1738,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1749,12 +1755,12 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1766,12 +1772,12 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1780,15 +1786,15 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1797,15 +1803,15 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1817,12 +1823,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
@@ -1834,17 +1840,16 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
       </c>
-      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1852,12 +1857,12 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -1875,7 +1880,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
@@ -1893,19 +1898,17 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="7">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>5</v>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -1925,21 +1928,21 @@
         <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
@@ -1948,21 +1951,18 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
@@ -1971,18 +1971,21 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
@@ -1991,18 +1994,18 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>54</v>
@@ -2011,18 +2014,18 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>54</v>
@@ -2031,32 +2034,32 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -2071,12 +2074,12 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="7">
         <v>3</v>
@@ -2091,18 +2094,18 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="7">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>72</v>
@@ -2111,38 +2114,38 @@
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="8">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>80</v>
       </c>
       <c r="C46" s="8">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -2151,35 +2154,35 @@
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>84</v>
+      <c r="B47" t="s">
+        <v>80</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
@@ -2188,21 +2191,18 @@
         <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -2211,18 +2211,21 @@
         <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -2231,24 +2234,24 @@
         <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -2257,32 +2260,32 @@
         <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2291,18 +2294,18 @@
         <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2311,18 +2314,18 @@
         <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2331,18 +2334,18 @@
         <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" s="8">
         <v>4</v>
@@ -2357,15 +2360,12 @@
         <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
@@ -2380,12 +2380,15 @@
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" s="8">
         <v>4</v>
@@ -2394,35 +2397,38 @@
         <v>85</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C59" s="8">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C60" s="9">
         <v>5</v>
@@ -2431,52 +2437,49 @@
         <v>114</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
       </c>
-      <c r="D62" t="s">
-        <v>125</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
@@ -2485,38 +2488,41 @@
         <v>125</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
       </c>
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
@@ -2528,66 +2534,66 @@
         <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="9">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
-        <v>85</v>
-      </c>
       <c r="E66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" s="9">
         <v>5</v>
       </c>
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C68" s="9">
+        <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C69" s="10">
         <v>6</v>
@@ -2599,12 +2605,12 @@
         <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2616,12 +2622,12 @@
         <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2630,18 +2636,15 @@
         <v>138</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2650,15 +2653,18 @@
         <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2667,18 +2673,15 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -2687,15 +2690,18 @@
         <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C75" s="10">
         <v>6</v>
@@ -2707,15 +2713,12 @@
         <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C76" s="10">
         <v>6</v>
@@ -2724,35 +2727,35 @@
         <v>138</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="11">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C77" s="10">
+        <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" s="11">
         <v>7</v>
@@ -2764,15 +2767,15 @@
         <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2787,12 +2790,12 @@
         <v>15</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2804,15 +2807,15 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2821,18 +2824,18 @@
         <v>158</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2841,18 +2844,18 @@
         <v>158</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2864,15 +2867,15 @@
         <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2887,12 +2890,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2907,12 +2910,12 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2927,15 +2930,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2950,12 +2950,15 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C88" s="11">
         <v>7</v>
@@ -2970,12 +2973,12 @@
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C89" s="11">
         <v>7</v>
@@ -2990,12 +2993,12 @@
         <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C90" s="11">
         <v>7</v>
@@ -3010,29 +3013,32 @@
         <v>15</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C91" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C91" s="11">
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C92" s="12">
         <v>8</v>
@@ -3049,59 +3055,56 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C93" s="12">
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C94" s="5">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>193</v>
@@ -3109,7 +3112,7 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
@@ -3124,35 +3127,35 @@
         <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -3161,18 +3164,18 @@
         <v>190</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3187,12 +3190,12 @@
         <v>15</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
@@ -3201,38 +3204,38 @@
         <v>190</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
@@ -3247,12 +3250,12 @@
         <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
@@ -3264,41 +3267,41 @@
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
@@ -3307,15 +3310,12 @@
         <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C106" s="5">
         <v>9</v>
@@ -3330,12 +3330,15 @@
         <v>15</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C107" s="5">
         <v>9</v>
@@ -3347,39 +3350,42 @@
         <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C108" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
       </c>
+      <c r="D109" t="s">
+        <v>225</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>226</v>
       </c>
@@ -3387,19 +3393,16 @@
         <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
       </c>
-      <c r="D110" t="s">
-        <v>225</v>
-      </c>
       <c r="E110" s="1" t="s">
         <v>226</v>
       </c>
@@ -3407,29 +3410,32 @@
         <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
       </c>
+      <c r="D111" t="s">
+        <v>225</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>234</v>
+      <c r="B112" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
@@ -3438,15 +3444,15 @@
         <v>226</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
-        <v>236</v>
+      <c r="B113" t="s">
+        <v>234</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
@@ -3458,19 +3464,16 @@
         <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
       </c>
-      <c r="D114" t="s">
-        <v>240</v>
-      </c>
       <c r="E114" s="1" t="s">
         <v>226</v>
       </c>
@@ -3478,16 +3481,19 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
       </c>
+      <c r="D115" t="s">
+        <v>240</v>
+      </c>
       <c r="E115" s="1" t="s">
         <v>226</v>
       </c>
@@ -3495,12 +3501,12 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -3512,12 +3518,12 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3526,15 +3532,15 @@
         <v>226</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3543,15 +3549,15 @@
         <v>226</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3563,12 +3569,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -3580,12 +3586,12 @@
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C121" s="5">
         <v>10</v>
@@ -3597,12 +3603,12 @@
         <v>15</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C122" s="5">
         <v>10</v>
@@ -3611,9 +3617,26 @@
         <v>226</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="5">
+        <v>10</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Question_List.xlsx
+++ b/Question_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="268">
   <si>
     <t>Largest Independent Set Problem</t>
   </si>
@@ -817,6 +817,9 @@
   </si>
   <si>
     <t>Egg Dropping Puzzle</t>
+  </si>
+  <si>
+    <t>Box Stacking Problem</t>
   </si>
 </sst>
 </file>
@@ -1249,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H123"/>
+  <dimension ref="B1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1504,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
@@ -1512,7 +1515,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1532,7 +1535,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1544,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
@@ -1552,7 +1555,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1561,10 +1564,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>5</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1581,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1604,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>5</v>
@@ -1612,7 +1615,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1621,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1632,7 +1635,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1641,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1649,13 +1652,10 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1672,27 +1672,33 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -1704,12 +1710,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1721,12 +1727,12 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
@@ -1738,12 +1744,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1755,12 +1761,12 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1772,12 +1778,12 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1789,12 +1795,12 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1803,15 +1809,15 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1820,15 +1826,15 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
@@ -1840,12 +1846,12 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -1857,17 +1863,16 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
       </c>
-      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1875,12 +1880,12 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
@@ -1898,7 +1903,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="6">
         <v>2</v>
@@ -1916,19 +1921,17 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="7">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>5</v>
@@ -1936,7 +1939,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -1948,21 +1951,21 @@
         <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
@@ -1971,21 +1974,18 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
@@ -1994,18 +1994,21 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>54</v>
@@ -2014,18 +2017,18 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>54</v>
@@ -2034,18 +2037,18 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>54</v>
@@ -2054,32 +2057,32 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="7">
         <v>3</v>
@@ -2094,12 +2097,12 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="7">
         <v>3</v>
@@ -2114,18 +2117,18 @@
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="7">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>72</v>
@@ -2134,38 +2137,38 @@
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="8">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>80</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -2174,35 +2177,35 @@
         <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>84</v>
+      <c r="B48" t="s">
+        <v>80</v>
       </c>
       <c r="C48" s="8">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -2211,21 +2214,18 @@
         <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -2234,18 +2234,21 @@
         <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
@@ -2254,24 +2257,24 @@
         <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -2280,32 +2283,32 @@
         <v>43</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" s="8">
         <v>4</v>
@@ -2314,18 +2317,18 @@
         <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2334,18 +2337,18 @@
         <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="8">
         <v>4</v>
@@ -2354,18 +2357,18 @@
         <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
@@ -2380,15 +2383,12 @@
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C58" s="8">
         <v>4</v>
@@ -2403,12 +2403,15 @@
         <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59" s="8">
         <v>4</v>
@@ -2417,35 +2420,38 @@
         <v>85</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="9">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C60" s="8">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C61" s="9">
         <v>5</v>
@@ -2454,52 +2460,49 @@
         <v>114</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="9">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C63" s="9">
         <v>5</v>
       </c>
-      <c r="D63" t="s">
-        <v>125</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" s="9">
         <v>5</v>
@@ -2508,38 +2511,41 @@
         <v>125</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C65" s="9">
         <v>5</v>
       </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C66" s="9">
         <v>5</v>
@@ -2551,66 +2557,66 @@
         <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="9">
         <v>5</v>
       </c>
-      <c r="D67" t="s">
-        <v>85</v>
-      </c>
       <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="9">
         <v>5</v>
       </c>
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="10">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C69" s="9">
+        <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C70" s="10">
         <v>6</v>
@@ -2622,12 +2628,12 @@
         <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="10">
         <v>6</v>
@@ -2639,12 +2645,12 @@
         <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" s="10">
         <v>6</v>
@@ -2653,18 +2659,15 @@
         <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" s="10">
         <v>6</v>
@@ -2673,15 +2676,18 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -2690,18 +2696,15 @@
         <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" s="10">
         <v>6</v>
@@ -2710,15 +2713,18 @@
         <v>138</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76" s="10">
         <v>6</v>
@@ -2730,15 +2736,12 @@
         <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="10">
         <v>6</v>
@@ -2747,35 +2750,35 @@
         <v>138</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="11">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C78" s="10">
+        <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" s="11">
         <v>7</v>
@@ -2787,15 +2790,15 @@
         <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80" s="11">
         <v>7</v>
@@ -2810,12 +2813,12 @@
         <v>15</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81" s="11">
         <v>7</v>
@@ -2827,15 +2830,15 @@
         <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82" s="11">
         <v>7</v>
@@ -2844,18 +2847,18 @@
         <v>158</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C83" s="11">
         <v>7</v>
@@ -2864,18 +2867,18 @@
         <v>158</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="11">
         <v>7</v>
@@ -2887,15 +2890,15 @@
         <v>11</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -2910,12 +2913,12 @@
         <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C86" s="11">
         <v>7</v>
@@ -2930,12 +2933,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="11">
         <v>7</v>
@@ -2950,15 +2953,12 @@
         <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C88" s="11">
         <v>7</v>
@@ -2973,12 +2973,15 @@
         <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C89" s="11">
         <v>7</v>
@@ -2993,12 +2996,12 @@
         <v>15</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" s="11">
         <v>7</v>
@@ -3013,12 +3016,12 @@
         <v>15</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91" s="11">
         <v>7</v>
@@ -3033,29 +3036,32 @@
         <v>15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="12">
-        <v>8</v>
+        <v>184</v>
+      </c>
+      <c r="C92" s="11">
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>158</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C93" s="12">
         <v>8</v>
@@ -3072,59 +3078,56 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C94" s="5">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="C94" s="12">
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C95" s="5">
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>193</v>
@@ -3132,7 +3135,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" s="5">
         <v>9</v>
@@ -3147,35 +3150,35 @@
         <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3184,18 +3187,18 @@
         <v>190</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C100" s="5">
         <v>9</v>
@@ -3210,12 +3213,12 @@
         <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
@@ -3224,38 +3227,38 @@
         <v>190</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C102" s="5">
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C103" s="5">
         <v>9</v>
@@ -3270,12 +3273,12 @@
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C104" s="5">
         <v>9</v>
@@ -3287,41 +3290,41 @@
         <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C105" s="5">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C106" s="5">
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
@@ -3330,15 +3333,12 @@
         <v>15</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C107" s="5">
         <v>9</v>
@@ -3353,12 +3353,15 @@
         <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C108" s="5">
         <v>9</v>
@@ -3370,39 +3373,42 @@
         <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C109" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C110" s="5">
         <v>10</v>
       </c>
+      <c r="D110" t="s">
+        <v>225</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>226</v>
       </c>
@@ -3410,19 +3416,16 @@
         <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C111" s="5">
         <v>10</v>
       </c>
-      <c r="D111" t="s">
-        <v>225</v>
-      </c>
       <c r="E111" s="1" t="s">
         <v>226</v>
       </c>
@@ -3430,29 +3433,32 @@
         <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
       </c>
+      <c r="D112" t="s">
+        <v>225</v>
+      </c>
       <c r="E112" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>234</v>
+      <c r="B113" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C113" s="5">
         <v>10</v>
@@ -3461,15 +3467,15 @@
         <v>226</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
-        <v>236</v>
+      <c r="B114" t="s">
+        <v>234</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
@@ -3481,19 +3487,16 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
       </c>
-      <c r="D115" t="s">
-        <v>240</v>
-      </c>
       <c r="E115" s="1" t="s">
         <v>226</v>
       </c>
@@ -3501,16 +3504,19 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
       </c>
+      <c r="D116" t="s">
+        <v>240</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>226</v>
       </c>
@@ -3518,12 +3524,12 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C117" s="5">
         <v>10</v>
@@ -3535,12 +3541,12 @@
         <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C118" s="5">
         <v>10</v>
@@ -3549,15 +3555,15 @@
         <v>226</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -3566,15 +3572,15 @@
         <v>226</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -3586,12 +3592,12 @@
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C121" s="5">
         <v>10</v>
@@ -3603,12 +3609,12 @@
         <v>15</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C122" s="5">
         <v>10</v>
@@ -3620,12 +3626,12 @@
         <v>15</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C123" s="5">
         <v>10</v>
@@ -3634,9 +3640,26 @@
         <v>226</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="5">
+        <v>10</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>255</v>
       </c>
     </row>
